--- a/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>DG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,221 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43952</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F7" s="2">
         <v>43770</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43679</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43588</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43497</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43406</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43315</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43224</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43133</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43042</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42860</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8448400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7157600</v>
+      </c>
+      <c r="F8" s="3">
         <v>6991400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>6981800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>6623200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>6649800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6417500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>6443300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6114500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6129400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5903600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5828300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5609600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>6009200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5320000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5852800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4884900</v>
+      </c>
+      <c r="F9" s="3">
         <v>4926300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>4832800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4620900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>4578100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>4522400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>4468400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4252200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4164000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4137200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4037800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3910600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4108500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3732500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2595600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2272700</v>
+      </c>
+      <c r="F10" s="3">
         <v>2065100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2149000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2002300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2071700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1895100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1974900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1862300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1965400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1766500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1790500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1699000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1900700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1587500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,8 +896,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -916,8 +942,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,22 +992,28 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>31000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -986,26 +1024,32 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,8 +1092,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1113,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7581700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6436800</v>
+      </c>
+      <c r="F17" s="3">
         <v>6500000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6404000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6110900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6011300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5975300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5897800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5624300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5506000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5486200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5335200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5135800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5328600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4927000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>866700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>720800</v>
+      </c>
+      <c r="F18" s="3">
         <v>491400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>577800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>512300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>638500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>442200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>545500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>490200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>623400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>417400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>493100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>473800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>680600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,8 +1233,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,14 +1256,14 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1205,192 +1271,222 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-3500</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1004400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>853300</v>
+      </c>
+      <c r="F21" s="3">
         <v>617900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>701200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>634700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>756300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>557000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>656600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>599500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>729100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>518400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>592200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>568900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>778200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>488400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>25600</v>
+      </c>
+      <c r="F22" s="3">
         <v>24300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>24800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>25900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>25100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>24600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>25500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>24800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>24300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>24000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>23700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>25000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>25500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>836300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>695300</v>
+      </c>
+      <c r="F23" s="3">
         <v>467200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>553000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>486300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>613400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>417600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>519000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>465400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>599200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>393400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>469400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>445300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>655100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>185800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>159900</v>
+      </c>
+      <c r="F24" s="3">
         <v>101600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>126400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>101300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>142400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>83400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>111800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>100600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>197800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>140900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>174600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>165800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>240900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>650400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>535400</v>
+      </c>
+      <c r="F26" s="3">
         <v>365600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>426600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>385000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>471000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>334100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>407200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>364900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>401400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>252500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>294800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>279500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>414200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>650400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>535400</v>
+      </c>
+      <c r="F27" s="3">
         <v>365600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>426600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>385000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>471000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>334100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>407200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>364900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>401400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>252500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>294800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>279500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>414200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,40 +1679,46 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>12200</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>12200</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>310800</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>310800</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1609,8 +1729,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,8 +1829,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1718,14 +1856,14 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1733,60 +1871,72 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>3500</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>650400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>535400</v>
+      </c>
+      <c r="F33" s="3">
         <v>365600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>426600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>385000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>483200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>334100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>407200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>364900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>712200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>252500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>294800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>279500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>414200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>650400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>535400</v>
+      </c>
+      <c r="F35" s="3">
         <v>365600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>426600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>385000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>483200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>334100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>407200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>364900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>712200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>252500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>294800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>279500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>414200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43952</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F38" s="2">
         <v>43770</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43679</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43588</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43497</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43406</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43315</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43224</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43133</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43042</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42860</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,52 +2128,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2673900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>240300</v>
+      </c>
+      <c r="F41" s="3">
         <v>276100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>259600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>271100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>235500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>260700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>265300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>284000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>267400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>226200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>214200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>206000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>187900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2046,184 +2224,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>76500</v>
+      </c>
+      <c r="F43" s="3">
         <v>103200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>61700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>25200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>57800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>114600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>68400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>28600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>108300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>99700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>44300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>10500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>11100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4107300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4676800</v>
+      </c>
+      <c r="F44" s="3">
         <v>4496400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>4419600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>4109800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>4097000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3979100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3896400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3594500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3609000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3597200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3463000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3300100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3258800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3488200</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>184200</v>
+      </c>
+      <c r="F45" s="3">
         <v>192900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>178300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>177700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>272700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>275900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>287800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>258900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>263100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>230300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>258600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>232400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>220000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>225400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6992500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5177900</v>
+      </c>
+      <c r="F46" s="3">
         <v>5068500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4919100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4583800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4663000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4630300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4517800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4166000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4247900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4153300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3980000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3748900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3677800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3968500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2266,52 +2474,64 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12280900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>12074500</v>
+      </c>
+      <c r="F48" s="3">
         <v>11770500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>11425800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>11148800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2970800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2921900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2857300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2758400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2701300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2654900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2574800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2487300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2434500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2319,43 +2539,49 @@
         <v>5538600</v>
       </c>
       <c r="E49" s="3">
+        <v>5538600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5538600</v>
+      </c>
+      <c r="G49" s="3">
         <v>5538700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>5538800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>5538800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>5538900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>5538900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5539000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5539000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5539100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5539100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5539200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5539200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5539300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2674,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>34100</v>
+      </c>
+      <c r="F52" s="3">
         <v>35100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>33900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>33000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>31400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>29900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>29900</v>
       </c>
       <c r="J52" s="3">
         <v>29900</v>
       </c>
       <c r="K52" s="3">
+        <v>29900</v>
+      </c>
+      <c r="L52" s="3">
+        <v>29900</v>
+      </c>
+      <c r="M52" s="3">
         <v>28800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>27400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>26900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>20900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>20800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24848300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>22825100</v>
+      </c>
+      <c r="F54" s="3">
         <v>22412800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>21917500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>21304300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>13204000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>13121000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>12943900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>12493200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>12516900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12374800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12120800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>11796400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>11672300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>11917100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,52 +2868,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2954400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2860700</v>
+      </c>
+      <c r="F57" s="3">
         <v>2844200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2727100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2452900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2385500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2336800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2295000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2018300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2009800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1978000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1880700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1622800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1557600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1948100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2669,213 +2935,243 @@
         <v>600</v>
       </c>
       <c r="G58" s="3">
+        <v>600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>600</v>
+      </c>
+      <c r="I58" s="3">
         <v>2000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1900</v>
       </c>
       <c r="J58" s="3">
         <v>1900</v>
       </c>
       <c r="K58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M58" s="3">
         <v>401300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>401500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>401400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>401200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>501000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>501500</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1888300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1682300</v>
+      </c>
+      <c r="F59" s="3">
         <v>1661300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1584600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1503300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>628400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>643500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>618600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>505100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>553800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>558200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>524700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>668100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>564300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>510100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4843200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4543600</v>
+      </c>
+      <c r="F60" s="3">
         <v>4506000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4312300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3956700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3015900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2982200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2915500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2525300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2964900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2937800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2806800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2692000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2622800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2959700</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3967200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2911400</v>
+      </c>
+      <c r="F61" s="3">
         <v>2762500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2573500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2732100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2862700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2902400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2776800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2862500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2604600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2719600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2683100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2632100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2710600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2673200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8828400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>8667600</v>
+      </c>
+      <c r="F62" s="3">
         <v>8496000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>8282600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>8042800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>908000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>880500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>872700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>869100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>821600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>973200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>943900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>943300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>932600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17638900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>16122600</v>
+      </c>
+      <c r="F66" s="3">
         <v>15764500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>15168400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>14731600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6786600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6765100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6565000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6256900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6391100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6630600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6433700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6267500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6266000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6555200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3484,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3534,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3659800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3162700</v>
+      </c>
+      <c r="F72" s="3">
         <v>3120700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>3234900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>3074600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2941100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2890100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2928100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2795600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2698400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2334500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2286100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2136400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2015900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1978000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7209500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6702500</v>
+      </c>
+      <c r="F76" s="3">
         <v>6648300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>6749200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6572700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>6417400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6355900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6378900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6236300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6125800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5744200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5687100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5528900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5406300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5361900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43952</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F80" s="2">
         <v>43770</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43679</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43588</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43497</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43406</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43315</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43224</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43133</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43042</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42860</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>650400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>535400</v>
+      </c>
+      <c r="F81" s="3">
         <v>365600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>426600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>385000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>483200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>334100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>407200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>364900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>712200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>252500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>294800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>279500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>414200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +4013,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>137700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>132400</v>
+      </c>
+      <c r="F83" s="3">
         <v>126500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>123400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>122500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>117800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>114900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>112200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>109300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>105700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>101000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>99000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>98600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>97500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4309,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1736300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>576900</v>
+      </c>
+      <c r="F89" s="3">
         <v>530600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>556300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>574200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>629400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>416800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>548600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>548600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>659200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>356700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>275800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>510500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>480600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>331100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4383,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-195400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-266800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-225000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-148300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-144800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-183500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-179900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-206300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-164600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-157800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-174600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-170500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-143500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-154400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-138100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4529,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-195000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-266300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-224500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-147300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-144300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-182500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-179500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-205600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-164000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-157400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-173900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-170300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-143400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-149400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-136200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,52 +4603,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-90600</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-80800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-81600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-82400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-82800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-75300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>118300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-271900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-77700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-70000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-70600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-71000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-71300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-68900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-70100</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,52 +4799,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>892200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-346300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-289500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-420600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-394300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-472100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-242000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-361700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-368100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-460600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-170700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-97300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-349000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-343600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-179700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4403,48 +4899,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2433600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="F102" s="3">
         <v>16500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-11500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>35600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-25200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-4600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-18700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>16500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>41200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>12000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>8200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>18100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-12300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>15200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>DG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,233 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43952</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43770</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43679</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43588</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43497</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43406</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43315</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43224</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43133</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43042</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42860</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8684200</v>
+      </c>
+      <c r="E8" s="3">
         <v>8448400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7157600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6991400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6981800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6623200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6649800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6417500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6443300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6114500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6129400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5903600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5828300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5609600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6009200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5320000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5866000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5852800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4884900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4926300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4832800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4620900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4578100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4522400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4468400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4252200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4164000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4137200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4037800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3910600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4108500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3732500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2818200</v>
+      </c>
+      <c r="E10" s="3">
         <v>2595600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2272700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2065100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2149000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2002300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2071700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1895100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1974900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1862300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1965400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1766500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1790500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1699000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1900700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1587500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +910,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,8 +961,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,25 +1014,28 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>31000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1030,8 +1049,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1039,8 +1058,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1048,8 +1067,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1098,8 +1120,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7641600</v>
+      </c>
+      <c r="E17" s="3">
         <v>7581700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6436800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6500000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6404000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6110900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6011300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5975300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5897800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5624300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5506000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5486200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5335200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5135800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5328600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4927000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1042600</v>
+      </c>
+      <c r="E18" s="3">
         <v>866700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>720800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>491400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>577800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>512300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>638500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>442200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>545500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>490200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>623400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>417400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>493100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>473800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>680600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,8 +1267,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1262,11 +1295,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1277,216 +1310,231 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1183600</v>
+      </c>
+      <c r="E21" s="3">
         <v>1004400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>853300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>617900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>701200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>634700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>756300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>557000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>656600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>599500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>729100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>518400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>592200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>568900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>778200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>488400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E22" s="3">
         <v>30500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>25600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>24300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>24800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>25900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>25100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>24600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>24300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>24000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>25000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>25500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1003300</v>
+      </c>
+      <c r="E23" s="3">
         <v>836300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>695300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>467200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>553000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>486300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>613400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>417600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>519000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>465400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>599200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>393400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>469400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>445300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>655100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>215700</v>
+      </c>
+      <c r="E24" s="3">
         <v>185800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>159900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>101600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>126400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>101300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>142400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>83400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>111800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>197800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>140900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>174600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>165800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>240900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>787600</v>
+      </c>
+      <c r="E26" s="3">
         <v>650400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>535400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>365600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>426600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>385000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>471000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>334100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>407200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>364900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>401400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>252500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>294800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>279500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>414200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>787600</v>
+      </c>
+      <c r="E27" s="3">
         <v>650400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>535400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>365600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>426600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>385000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>471000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>334100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>407200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>364900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>401400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>252500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>294800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>279500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>414200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,19 +1742,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1705,11 +1765,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>12200</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1717,11 +1777,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>310800</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1735,8 +1795,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,8 +1901,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1862,11 +1931,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1877,66 +1946,72 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>3500</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>787600</v>
+      </c>
+      <c r="E33" s="3">
         <v>650400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>535400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>365600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>426600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>385000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>483200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>334100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>407200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>364900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>712200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>252500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>294800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>279500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>414200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>787600</v>
+      </c>
+      <c r="E35" s="3">
         <v>650400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>535400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>365600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>426600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>385000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>483200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>334100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>407200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>364900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>712200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>252500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>294800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>279500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>414200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43952</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43770</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43679</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43588</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43497</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43406</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43315</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43224</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43133</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43042</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42860</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,58 +2215,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2959600</v>
+      </c>
+      <c r="E41" s="3">
         <v>2673900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>240300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>276100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>259600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>271100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>235500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>260700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>265300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>284000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>267400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>226200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>214200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>206000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>187900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2230,208 +2319,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E43" s="3">
         <v>17200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>76500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>103200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>61700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>25200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>57800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>114600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>68400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>108300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>99700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>44300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>11100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4391200</v>
+      </c>
+      <c r="E44" s="3">
         <v>4107300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4676800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4496400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4419600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4109800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4097000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3979100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3896400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3594500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3609000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3597200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3463000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3300100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3258800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3488200</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>210500</v>
+      </c>
+      <c r="E45" s="3">
         <v>194000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>184200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>192900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>178300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>177700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>272700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>275900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>287800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>258900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>263100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>230300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>258600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>232400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>220000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>225400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7597400</v>
+      </c>
+      <c r="E46" s="3">
         <v>6992500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5177900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5068500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4919100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4583800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4663000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4630300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4517800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4166000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4247900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4153300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3980000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3748900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3677800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3968500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2480,63 +2584,69 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12675800</v>
+      </c>
+      <c r="E48" s="3">
         <v>12280900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12074500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11770500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11425800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11148800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2970800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2921900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2857300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2758400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2701300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2654900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2574800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2487300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2434500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5538600</v>
+        <v>5538500</v>
       </c>
       <c r="E49" s="3">
         <v>5538600</v>
@@ -2545,43 +2655,46 @@
         <v>5538600</v>
       </c>
       <c r="G49" s="3">
+        <v>5538600</v>
+      </c>
+      <c r="H49" s="3">
         <v>5538700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>5538800</v>
       </c>
       <c r="I49" s="3">
         <v>5538800</v>
       </c>
       <c r="J49" s="3">
-        <v>5538900</v>
+        <v>5538800</v>
       </c>
       <c r="K49" s="3">
         <v>5538900</v>
       </c>
       <c r="L49" s="3">
-        <v>5539000</v>
+        <v>5538900</v>
       </c>
       <c r="M49" s="3">
         <v>5539000</v>
       </c>
       <c r="N49" s="3">
-        <v>5539100</v>
+        <v>5539000</v>
       </c>
       <c r="O49" s="3">
         <v>5539100</v>
       </c>
       <c r="P49" s="3">
-        <v>5539200</v>
+        <v>5539100</v>
       </c>
       <c r="Q49" s="3">
         <v>5539200</v>
       </c>
       <c r="R49" s="3">
+        <v>5539200</v>
+      </c>
+      <c r="S49" s="3">
         <v>5539300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,31 +2796,34 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E52" s="3">
         <v>36300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>34100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>35100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>33900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>33000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>31400</v>
-      </c>
-      <c r="J52" s="3">
-        <v>29900</v>
       </c>
       <c r="K52" s="3">
         <v>29900</v>
@@ -2713,25 +2832,28 @@
         <v>29900</v>
       </c>
       <c r="M52" s="3">
+        <v>29900</v>
+      </c>
+      <c r="N52" s="3">
         <v>28800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>27400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>26900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>20900</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>20800</v>
       </c>
       <c r="R52" s="3">
         <v>20800</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25847400</v>
+      </c>
+      <c r="E54" s="3">
         <v>24848300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22825100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22412800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21917500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21304300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13204000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13121000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12943900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12493200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12516900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12374800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12120800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11796400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11672300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11917100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,63 +2999,67 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400600</v>
+      </c>
+      <c r="E57" s="3">
         <v>2954400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2860700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2844200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2727100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2452900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2385500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2336800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2295000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2018300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2009800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1978000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1880700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1622800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1557600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1948100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>600</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
@@ -2941,10 +3074,10 @@
         <v>600</v>
       </c>
       <c r="I58" s="3">
+        <v>600</v>
+      </c>
+      <c r="J58" s="3">
         <v>2000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1900</v>
       </c>
       <c r="K58" s="3">
         <v>1900</v>
@@ -2953,225 +3086,240 @@
         <v>1900</v>
       </c>
       <c r="M58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N58" s="3">
         <v>401300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>401500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>401400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>401200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>501000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>501500</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2010500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1888300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1682300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1661300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1584600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1503300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>628400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>643500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>618600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>505100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>553800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>558200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>524700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>668100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>564300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>510100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5411200</v>
+      </c>
+      <c r="E60" s="3">
         <v>4843200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4543600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4506000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4312300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3956700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3015900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2982200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2915500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2525300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2964900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2937800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2806800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2692000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2622800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2959700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4089000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3967200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2911400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2762500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2573500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2732100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2862700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2902400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2776800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2862500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2604600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2719600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2683100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2632100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2710600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2673200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8991200</v>
+      </c>
+      <c r="E62" s="3">
         <v>8828400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8667600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8496000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8282600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8042800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>908000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>880500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>872700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>869100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>821600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>973200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>943900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>943300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>932600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18491400</v>
+      </c>
+      <c r="E66" s="3">
         <v>17638900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16122600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15764500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15168400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14731600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6786600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6765100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6565000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6256900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6391100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6630600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6433700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6267500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6266000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6555200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3759000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3659800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3162700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3120700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3234900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3074600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2941100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2890100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2928100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2795600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2698400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2334500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2286100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2136400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2015900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1978000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7356100</v>
+      </c>
+      <c r="E76" s="3">
         <v>7209500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6702500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6648300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6749200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6572700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6417400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6355900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6378900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6236300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6125800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5744200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5687100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5528900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5406300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5361900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43952</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43770</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43679</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43588</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43497</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43406</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43315</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43224</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43133</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43042</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42860</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>787600</v>
+      </c>
+      <c r="E81" s="3">
         <v>650400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>535400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>365600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>426600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>385000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>483200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>334100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>407200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>364900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>712200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>252500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>294800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>279500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>414200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E83" s="3">
         <v>137700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>132400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>126500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>123400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>122500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>117800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>114900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>112200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>109300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>105700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>101000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>99000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>98600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>97500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1171000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1736300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>576900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>530600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>556300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>574200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>629400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>416800</v>
-      </c>
-      <c r="K89" s="3">
-        <v>548600</v>
       </c>
       <c r="L89" s="3">
         <v>548600</v>
       </c>
       <c r="M89" s="3">
+        <v>548600</v>
+      </c>
+      <c r="N89" s="3">
         <v>659200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>356700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>275800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>510500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>480600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>331100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4604,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-228700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-195400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-266800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-225000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-148300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-144800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-183500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-179900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-206300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-164600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-157800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-174600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-170500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-143500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-154400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-138100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-228100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-195000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-266300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-224500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-147300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-144300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-182500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-179500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-205600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-164000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-157400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-173900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-170300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-143400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-149400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-136200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,58 +4837,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-90600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-80800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-81600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-82400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-82800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-75300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>118300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-271900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-77700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-70000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-70600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-71000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-71300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-68900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-70100</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,58 +5047,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-657200</v>
+      </c>
+      <c r="E100" s="3">
         <v>892200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-346300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-289500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-420600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-394300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-472100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-242000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-361700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-368100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-460600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-170700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-97300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-349000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-343600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-179700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4905,54 +5153,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>285700</v>
+      </c>
+      <c r="E102" s="3">
         <v>2433600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-35800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>35600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-25200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-18700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>41200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-12300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>15200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>DG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,257 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44134</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43952</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43770</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43679</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43588</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43497</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43406</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43315</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43224</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43133</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43042</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42860</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8414500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8199600</v>
+      </c>
+      <c r="F8" s="3">
         <v>8684200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>8448400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>7157600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>6991400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6981800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>6623200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6649800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6417500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6443300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6114500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6129400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5903600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5828300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5609600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>6009200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>5320000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5677800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5631400</v>
+      </c>
+      <c r="F9" s="3">
         <v>5866000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>5852800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4884900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>4926300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>4832800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>4620900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4578100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4522400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4468400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4252200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4164000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4137200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4037800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3910600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4108500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>3732500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2736700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2568200</v>
+      </c>
+      <c r="F10" s="3">
         <v>2818200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2595600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2272700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2065100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2149000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2002300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2071700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1895100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1974900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1862300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1965400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1766500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1790500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1699000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1900700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1587500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +935,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +990,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,8 +1049,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1028,20 +1066,20 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>31000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1052,26 +1090,32 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1123,8 +1167,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1191,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7542300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7426500</v>
+      </c>
+      <c r="F17" s="3">
         <v>7641600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>7581700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6436800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6500000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6404000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6110900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6011300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5975300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5897800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5624300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5506000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5486200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5335200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5135800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5328600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4927000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>872200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>773100</v>
+      </c>
+      <c r="F18" s="3">
         <v>1042600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>866700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>720800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>491400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>577800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>512300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>638500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>442200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>545500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>490200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>623400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>417400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>493100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>473800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>680600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,8 +1332,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1298,14 +1364,14 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1313,228 +1379,258 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-3500</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1022000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>919000</v>
+      </c>
+      <c r="F21" s="3">
         <v>1183600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1004400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>853300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>617900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>701200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>634700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>756300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>557000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>656600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>599500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>729100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>518400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>592200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>568900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>778200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>488400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>40300</v>
+      </c>
+      <c r="F22" s="3">
         <v>39300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>30500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>25600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>24300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>24800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>25900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>25100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>24600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>25500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>24800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>24300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>24000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>23700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>25000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>25500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>832000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>732800</v>
+      </c>
+      <c r="F23" s="3">
         <v>1003300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>836300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>695300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>467200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>553000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>486300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>613400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>417600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>519000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>465400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>599200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>393400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>469400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>445300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>655100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>189200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>158600</v>
+      </c>
+      <c r="F24" s="3">
         <v>215700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>185800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>159900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>101600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>126400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>101300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>142400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>83400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>111800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>100600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>197800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>140900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>174600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>165800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>240900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1682,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>642700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>574300</v>
+      </c>
+      <c r="F26" s="3">
         <v>787600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>650400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>535400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>365600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>426600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>385000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>471000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>334100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>407200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>364900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>401400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>252500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>294800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>279500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>414200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>642700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>574300</v>
+      </c>
+      <c r="F27" s="3">
         <v>787600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>650400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>535400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>365600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>426600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>385000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>471000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>334100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>407200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>364900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>401400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>252500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>294800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>279500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>414200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1859,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1756,38 +1876,38 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>12200</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>12200</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>310800</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>310800</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1798,8 +1918,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1977,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,8 +2036,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1934,14 +2072,14 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1949,69 +2087,81 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>3500</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>642700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>574300</v>
+      </c>
+      <c r="F33" s="3">
         <v>787600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>650400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>535400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>365600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>426600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>385000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>483200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>334100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>407200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>364900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>712200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>252500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>294800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>279500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>414200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2213,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>642700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>574300</v>
+      </c>
+      <c r="F35" s="3">
         <v>787600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>650400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>535400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>365600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>426600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>385000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>483200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>334100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>407200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>364900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>712200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>252500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>294800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>279500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>414200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44134</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43952</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43770</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43679</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43588</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43497</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43406</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43315</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43224</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43133</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43042</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42860</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2363,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,61 +2386,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1376600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2199400</v>
+      </c>
+      <c r="F41" s="3">
         <v>2959600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2673900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>240300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>276100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>259600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>271100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>235500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>260700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>265300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>284000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>267400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>226200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>214200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>206000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>187900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>200200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2322,220 +2500,250 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>90800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>111100</v>
+      </c>
+      <c r="F43" s="3">
         <v>36200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>17200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>76500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>103200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>61700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>25200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>57800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>114600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>68400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>28600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>108300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>99700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>44300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>10500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>11100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5247500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5025800</v>
+      </c>
+      <c r="F44" s="3">
         <v>4391200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>4107300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>4676800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>4496400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>4419600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>4109800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>4097000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3979100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3896400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3594500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3609000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3597200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3463000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>3300100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>3258800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>3488200</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>199400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>197000</v>
+      </c>
+      <c r="F45" s="3">
         <v>210500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>194000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>184200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>192900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>178300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>177700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>272700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>275900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>287800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>258900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>263100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>230300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>258600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>232400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>220000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>225400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6914200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7533400</v>
+      </c>
+      <c r="F46" s="3">
         <v>7597400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6992500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>5177900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5068500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4919100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4583800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4663000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4630300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4517800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4166000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4247900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4153300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3980000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3748900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3677800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3968500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2587,61 +2795,73 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13373300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13045200</v>
+      </c>
+      <c r="F48" s="3">
         <v>12675800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>12280900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>12074500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>11770500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>11425800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>11148800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2970800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2921900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2857300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2758400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2701300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2654900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2574800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2487300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2434500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2649,52 +2869,58 @@
         <v>5538500</v>
       </c>
       <c r="E49" s="3">
-        <v>5538600</v>
+        <v>5538500</v>
       </c>
       <c r="F49" s="3">
-        <v>5538600</v>
+        <v>5538500</v>
       </c>
       <c r="G49" s="3">
         <v>5538600</v>
       </c>
       <c r="H49" s="3">
+        <v>5538600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>5538600</v>
+      </c>
+      <c r="J49" s="3">
         <v>5538700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>5538800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5538800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5538900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5538900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5539000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5539000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5539100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5539100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>5539200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>5539200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>5539300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2972,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +3031,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>36400</v>
+      </c>
+      <c r="F52" s="3">
         <v>35700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>36300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>34100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>35100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>33900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>33000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>31400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>29900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>29900</v>
       </c>
       <c r="M52" s="3">
         <v>29900</v>
       </c>
       <c r="N52" s="3">
+        <v>29900</v>
+      </c>
+      <c r="O52" s="3">
+        <v>29900</v>
+      </c>
+      <c r="P52" s="3">
         <v>28800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>27400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>26900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>20900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>20800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3149,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25862600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>26153400</v>
+      </c>
+      <c r="F54" s="3">
         <v>25847400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>24848300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>22825100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>22412800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>21917500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>21304300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>13204000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>13121000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12943900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12493200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>12516900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>12374800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>12120800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>11796400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>11672300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>11917100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3235,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,72 +3258,80 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3614100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3770500</v>
+      </c>
+      <c r="F57" s="3">
         <v>3400600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2954400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2860700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2844200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2727100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2452900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2385500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2336800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2295000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2018300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2009800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1978000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1880700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1622800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1557600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1948100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>600</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
@@ -3077,249 +3343,279 @@
         <v>600</v>
       </c>
       <c r="J58" s="3">
+        <v>600</v>
+      </c>
+      <c r="K58" s="3">
+        <v>600</v>
+      </c>
+      <c r="L58" s="3">
         <v>2000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1900</v>
       </c>
       <c r="M58" s="3">
         <v>1900</v>
       </c>
       <c r="N58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P58" s="3">
         <v>401300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>401500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>401400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>401200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>501000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>501500</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2096700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2115700</v>
+      </c>
+      <c r="F59" s="3">
         <v>2010500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1888300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1682300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1661300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1584600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1503300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>628400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>643500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>618600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>505100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>553800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>558200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>524700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>668100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>564300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>510100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5710800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5886200</v>
+      </c>
+      <c r="F60" s="3">
         <v>5411200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4843200</v>
       </c>
-      <c r="F60" s="3">
-        <v>4543600</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
+        <v>4543000</v>
+      </c>
+      <c r="I60" s="3">
         <v>4506000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4312300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3956700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3015900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2982200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2915500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2525300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2964900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2937800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2806800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2692000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2622800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2959700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4131000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4131600</v>
+      </c>
+      <c r="F61" s="3">
         <v>4089000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3967200</v>
       </c>
-      <c r="F61" s="3">
-        <v>2911400</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
+        <v>2912000</v>
+      </c>
+      <c r="I61" s="3">
         <v>2762500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2573500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2732100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2862700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2902400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2776800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2862500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2604600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2719600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2683100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2632100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2710600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2673200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9359600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>9150100</v>
+      </c>
+      <c r="F62" s="3">
         <v>8991200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>8828400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>8667600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>8496000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>8282600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>8042800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>908000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>880500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>872700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>869100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>821600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>973200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>943900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>943300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>932600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3667,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3726,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3785,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19201400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>19167900</v>
+      </c>
+      <c r="F66" s="3">
         <v>18491400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>17638900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>16122600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>15764500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>15168400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>14731600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6786600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6765100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6565000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6256900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6391100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6630600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6433700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6267500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6266000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6555200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3871,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3926,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3985,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +4044,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +4103,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3006100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3346800</v>
+      </c>
+      <c r="F72" s="3">
         <v>3759000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>3659800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>3162700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>3120700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>3234900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>3074600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2941100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2890100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2928100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2795600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2698400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2334500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2286100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>2136400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>2015900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1978000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4221,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4280,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4339,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6661200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6985500</v>
+      </c>
+      <c r="F76" s="3">
         <v>7356100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>7209500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6702500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>6648300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6749200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6572700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6417400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6355900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6378900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6236300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6125800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5744200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5687100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>5528900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>5406300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>5361900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4457,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44134</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43952</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43770</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43679</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43588</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43497</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43406</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43315</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43224</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43133</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43042</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42860</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>642700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>574300</v>
+      </c>
+      <c r="F81" s="3">
         <v>787600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>650400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>535400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>365600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>426600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>385000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>483200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>334100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>407200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>364900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>712200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>252500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>294800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>279500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>414200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4607,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>145800</v>
+      </c>
+      <c r="F83" s="3">
         <v>141000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>137700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>132400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>126500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>123400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>122500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>117800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>114900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>112200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>109300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>105700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>101000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>99000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>98600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>97500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4721,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4780,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4839,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4898,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4957,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>492600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>476200</v>
+      </c>
+      <c r="F89" s="3">
         <v>1171000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1736300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>576900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>530600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>556300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>574200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>629400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>416800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>548600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>548600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>659200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>356700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>275800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>510500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>480600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>331100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +5043,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-330400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-273400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-228700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-195400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-266800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-225000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-148300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-144800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-183500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-179900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-206300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-164600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-157800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-174600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-170500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-143500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-154400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-138100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +5157,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +5216,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-328900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-272900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-228100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-195000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-266300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-224500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-147300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-144300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-182500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-179500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-205600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-164000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-157400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-173900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-170300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-143400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-149400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-136200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,61 +5302,69 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-88400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-89700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-90600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-80800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-81600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-82400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-82800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-75300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>118300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-271900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-77700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-70000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-70600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-71000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-71300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-68900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-70100</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5416,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5475,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,61 +5534,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-986600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-963500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-657200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>892200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-346300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-289500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-420600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-394300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-472100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-242000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-361700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-368100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-460600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-170700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-97300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-349000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-343600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-179700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5156,57 +5652,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-822900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-760200</v>
+      </c>
+      <c r="F102" s="3">
         <v>285700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2433600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-35800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>16500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-11500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>35600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-25200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-4600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-18700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>16500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>41200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>12000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>8200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>18100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-12300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>15200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>DG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44225</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44134</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43952</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43770</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43679</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43588</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43497</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43406</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43315</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43224</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43133</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43042</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42951</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42860</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42769</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8401000</v>
+      </c>
+      <c r="E8" s="3">
         <v>8414500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8199600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8684200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8448400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7157600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6991400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6981800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6623200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6649800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6417500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6443300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6114500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6129400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5903600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5828300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5609600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6009200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5320000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5645300</v>
+      </c>
+      <c r="E9" s="3">
         <v>5677800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5631400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5866000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5852800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4884900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4926300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4832800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4620900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4578100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4522400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4468400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4252200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4164000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4137200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4037800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3910600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4108500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3732500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2755700</v>
+      </c>
+      <c r="E10" s="3">
         <v>2736700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2568200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2818200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2595600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2272700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2065100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2149000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2002300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2071700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1895100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1974900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1862300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1965400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1766500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1790500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1699000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1900700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1587500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1009,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,8 +1071,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1072,17 +1091,17 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>31000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1096,8 +1115,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1105,8 +1124,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1114,8 +1133,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1173,8 +1195,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7492100</v>
+      </c>
+      <c r="E17" s="3">
         <v>7542300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7426500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7641600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7581700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6436800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6500000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6404000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6110900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6011300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5975300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5897800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5624300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5506000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5486200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5335200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5135800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5328600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4927000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>908900</v>
+      </c>
+      <c r="E18" s="3">
         <v>872200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>773100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1042600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>866700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>720800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>491400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>577800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>512300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>638500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>442200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>545500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>490200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>623400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>417400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>493100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>473800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>680600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,8 +1366,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1370,11 +1403,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1385,252 +1418,267 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-3500</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1063000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1022000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>919000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1183600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1004400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>853300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>617900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>701200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>634700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>756300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>557000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>656600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>599500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>729100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>518400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>592200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>568900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>778200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>488400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40300</v>
+        <v>40400</v>
       </c>
       <c r="E22" s="3">
         <v>40300</v>
       </c>
       <c r="F22" s="3">
+        <v>40300</v>
+      </c>
+      <c r="G22" s="3">
         <v>39300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>30500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>25600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>24300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>24800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>24600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>25500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>24800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>24000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>25000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>25500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>868500</v>
+      </c>
+      <c r="E23" s="3">
         <v>832000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>732800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1003300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>836300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>695300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>467200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>553000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>486300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>613400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>417600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>519000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>465400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>599200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>393400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>469400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>445300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>655100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>190700</v>
+      </c>
+      <c r="E24" s="3">
         <v>189200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>158600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>215700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>185800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>159900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>101600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>126400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>101300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>142400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>83400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>111800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>197800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>140900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>174600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>165800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>240900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>677700</v>
+      </c>
+      <c r="E26" s="3">
         <v>642700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>574300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>787600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>650400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>535400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>365600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>426600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>385000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>471000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>334100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>407200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>364900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>401400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>252500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>294800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>279500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>414200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>677700</v>
+      </c>
+      <c r="E27" s="3">
         <v>642700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>574300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>787600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>650400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>535400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>365600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>426600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>385000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>471000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>334100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>407200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>364900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>401400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>252500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>294800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>279500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>414200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,8 +1922,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1882,11 +1942,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1894,11 +1954,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>12200</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1906,11 +1966,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>310800</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1924,8 +1984,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,8 +2108,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2078,11 +2147,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2093,75 +2162,81 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>3500</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>677700</v>
+      </c>
+      <c r="E33" s="3">
         <v>642700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>574300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>787600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>650400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>535400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>365600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>426600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>385000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>483200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>334100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>407200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>364900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>712200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>252500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>294800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>279500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>414200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>677700</v>
+      </c>
+      <c r="E35" s="3">
         <v>642700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>574300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>787600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>650400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>535400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>365600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>426600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>385000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>483200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>334100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>407200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>364900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>712200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>252500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>294800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>279500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>414200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44225</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44134</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43952</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43770</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43679</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43588</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43497</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43406</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43315</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43224</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43133</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43042</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42951</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42860</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42769</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,67 +2473,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>688100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1376600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2199400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2959600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2673900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>240300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>276100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>259600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>271100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>235500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>260700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>265300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>284000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>267400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>226200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>214200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>206000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>187900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>200200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2506,244 +2595,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E43" s="3">
         <v>90800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>111100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>36200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>76500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>103200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>61700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>57800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>114600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>68400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>28600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>108300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>99700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>44300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>10500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>11100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5099500</v>
+      </c>
+      <c r="E44" s="3">
         <v>5247500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5025800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4391200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4107300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4676800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4496400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4419600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4109800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4097000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3979100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3896400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3594500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3609000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3597200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3463000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3300100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3258800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3488200</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>237600</v>
+      </c>
+      <c r="E45" s="3">
         <v>199400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>197000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>210500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>194000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>184200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>192900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>178300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>177700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>272700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>275900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>287800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>258900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>263100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>230300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>258600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>232400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>220000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>225400</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6041700</v>
+      </c>
+      <c r="E46" s="3">
         <v>6914200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7533400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7597400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6992500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5177900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5068500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4919100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4583800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4663000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4630300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4517800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4166000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4247900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4153300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3980000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3748900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3677800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3968500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2801,72 +2905,78 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13614100</v>
+      </c>
+      <c r="E48" s="3">
         <v>13373300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13045200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12675800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12280900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12074500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11770500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11425800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11148800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2970800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2921900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2857300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2758400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2701300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2654900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2574800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2487300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2434500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5538500</v>
+        <v>5538400</v>
       </c>
       <c r="E49" s="3">
         <v>5538500</v>
@@ -2875,7 +2985,7 @@
         <v>5538500</v>
       </c>
       <c r="G49" s="3">
-        <v>5538600</v>
+        <v>5538500</v>
       </c>
       <c r="H49" s="3">
         <v>5538600</v>
@@ -2884,43 +2994,46 @@
         <v>5538600</v>
       </c>
       <c r="J49" s="3">
+        <v>5538600</v>
+      </c>
+      <c r="K49" s="3">
         <v>5538700</v>
-      </c>
-      <c r="K49" s="3">
-        <v>5538800</v>
       </c>
       <c r="L49" s="3">
         <v>5538800</v>
       </c>
       <c r="M49" s="3">
-        <v>5538900</v>
+        <v>5538800</v>
       </c>
       <c r="N49" s="3">
         <v>5538900</v>
       </c>
       <c r="O49" s="3">
-        <v>5539000</v>
+        <v>5538900</v>
       </c>
       <c r="P49" s="3">
         <v>5539000</v>
       </c>
       <c r="Q49" s="3">
-        <v>5539100</v>
+        <v>5539000</v>
       </c>
       <c r="R49" s="3">
         <v>5539100</v>
       </c>
       <c r="S49" s="3">
-        <v>5539200</v>
+        <v>5539100</v>
       </c>
       <c r="T49" s="3">
         <v>5539200</v>
       </c>
       <c r="U49" s="3">
+        <v>5539200</v>
+      </c>
+      <c r="V49" s="3">
         <v>5539300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,40 +3153,43 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E52" s="3">
         <v>36600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>36400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>35700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>36300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>34100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>35100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>33900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>33000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>31400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>29900</v>
       </c>
       <c r="N52" s="3">
         <v>29900</v>
@@ -3079,25 +3198,28 @@
         <v>29900</v>
       </c>
       <c r="P52" s="3">
+        <v>29900</v>
+      </c>
+      <c r="Q52" s="3">
         <v>28800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>27400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>26900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>20900</v>
-      </c>
-      <c r="T52" s="3">
-        <v>20800</v>
       </c>
       <c r="U52" s="3">
         <v>20800</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25236700</v>
+      </c>
+      <c r="E54" s="3">
         <v>25862600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26153400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25847400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24848300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22825100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22412800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>21917500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21304300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13204000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13121000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12943900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12493200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12516900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12374800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12120800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11796400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11672300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11917100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,67 +3389,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3294400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3614100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3770500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3400600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2954400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2860700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2844200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2727100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2452900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2385500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2336800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2295000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2018300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2009800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1978000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1880700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1622800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1557600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1948100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3333,8 +3466,8 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>600</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
@@ -3349,10 +3482,10 @@
         <v>600</v>
       </c>
       <c r="L58" s="3">
+        <v>600</v>
+      </c>
+      <c r="M58" s="3">
         <v>2000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1900</v>
       </c>
       <c r="N58" s="3">
         <v>1900</v>
@@ -3361,261 +3494,276 @@
         <v>1900</v>
       </c>
       <c r="P58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q58" s="3">
         <v>401300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>401500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>401400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>401200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>501000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>501500</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2021000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2096700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2115700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2010500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1888300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1682300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1661300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1584600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1503300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>628400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>643500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>618600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>505100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>553800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>558200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>524700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>668100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>564300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>510100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5315400</v>
+      </c>
+      <c r="E60" s="3">
         <v>5710800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5886200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5411200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4843200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4543000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4506000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4312300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3956700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3015900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2982200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2915500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2525300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2964900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2937800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2806800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2692000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2622800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2959700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4130700</v>
+      </c>
+      <c r="E61" s="3">
         <v>4131000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4131600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4089000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3967200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2912000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2762500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2573500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2732100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2862700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2902400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2776800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2862500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2604600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2719600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2683100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2632100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2710600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2673200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9540700</v>
+      </c>
+      <c r="E62" s="3">
         <v>9359600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9150100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8991200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8828400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8667600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8496000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8282600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8042800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>908000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>880500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>872700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>869100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>821600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>973200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>943900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>943300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>932600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18986800</v>
+      </c>
+      <c r="E66" s="3">
         <v>19201400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19167900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18491400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17638900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16122600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15764500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15168400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14731600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6786600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6765100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6565000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6256900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6391100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6630600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6433700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6267500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6266000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6555200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2588000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3006100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3346800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3759000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3659800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3162700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3120700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3234900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3074600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2941100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2890100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2928100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2795600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2698400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2334500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2286100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2136400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2015900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1978000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6249900</v>
+      </c>
+      <c r="E76" s="3">
         <v>6661200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6985500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7356100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7209500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6702500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6648300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6749200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6572700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6417400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6355900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6378900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6236300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6125800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5744200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5687100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5528900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5406300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5361900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44225</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44134</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43952</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43770</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43679</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43588</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43497</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43406</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43315</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43224</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43133</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43042</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42951</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42860</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42769</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>677700</v>
+      </c>
+      <c r="E81" s="3">
         <v>642700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>574300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>787600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>650400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>535400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>365600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>426600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>385000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>483200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>334100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>407200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>364900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>712200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>252500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>294800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>279500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>414200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>154100</v>
+      </c>
+      <c r="E83" s="3">
         <v>149800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>145800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>141000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>137700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>132400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>126500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>123400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>122500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>117800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>114900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>112200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>109300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>105700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>101000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>99000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>98600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>97500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>703000</v>
+      </c>
+      <c r="E89" s="3">
         <v>492600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>476200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1171000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1736300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>576900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>530600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>556300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>574200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>629400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>416800</v>
-      </c>
-      <c r="N89" s="3">
-        <v>548600</v>
       </c>
       <c r="O89" s="3">
         <v>548600</v>
       </c>
       <c r="P89" s="3">
+        <v>548600</v>
+      </c>
+      <c r="Q89" s="3">
         <v>659200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>356700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>275800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>510500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>480600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>331100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5264,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-277700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-330400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-273400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-228700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-195400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-266800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-225000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-148300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-144800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-183500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-179900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-206300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-164600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-157800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-174600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-170500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-143500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-154400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-138100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-276900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-328900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-272900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-228100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-195000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-266300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-224500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-147300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-144300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-182500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-179500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-205600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-164000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-157400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-173900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-170300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-143400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-149400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-136200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,67 +5536,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-99800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-87300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-88400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-89700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-90600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-80800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-81600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-82400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-82800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-75300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>118300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-271900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-77700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-70600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-71000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-71300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-68900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-70100</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,67 +5782,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1114600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-986600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-963500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-657200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>892200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-346300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-289500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-420600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-394300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-472100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-242000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-361700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-368100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-460600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-170700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-97300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-349000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-343600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-179700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5658,63 +5906,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-688500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-822900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-760200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>285700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2433600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-35800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>35600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-25200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-18700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>16500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>41200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>18100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-12300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>15200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>DG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,281 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44407</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44225</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44134</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43952</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43770</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43679</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43588</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43497</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43406</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43315</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43224</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43133</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43042</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42951</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42860</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42769</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8650200</v>
+      </c>
+      <c r="E8" s="3">
         <v>8401000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8414500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8199600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8684200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8448400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7157600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6991400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6981800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6623200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6649800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6417500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6443300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6114500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6129400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5903600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5828300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5609600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6009200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5320000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5912500</v>
+      </c>
+      <c r="E9" s="3">
         <v>5645300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5677800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5631400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5866000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5852800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4884900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4926300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4832800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4620900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4578100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4522400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4468400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4252200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4164000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4137200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4037800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3910600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4108500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3732500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2737700</v>
+      </c>
+      <c r="E10" s="3">
         <v>2755700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2736700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2568200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2818200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2595600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2272700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2065100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2149000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2002300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2071700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1895100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1974900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1862300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1965400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1766500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1790500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1699000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1900700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1587500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1012,8 +1025,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,8 +1090,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1094,17 +1113,17 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>31000</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1118,8 +1137,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1127,8 +1146,8 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1136,8 +1155,11 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1198,8 +1220,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7800600</v>
+      </c>
+      <c r="E17" s="3">
         <v>7492100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7542300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7426500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7641600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7581700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6436800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6500000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6404000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6110900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6011300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5975300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5897800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5624300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5506000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5486200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5335200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5135800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5328600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4927000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>849600</v>
+      </c>
+      <c r="E18" s="3">
         <v>908900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>872200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>773100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1042600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>866700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>720800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>491400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>577800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>512300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>638500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>442200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>545500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>490200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>623400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>417400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>493100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>473800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>680600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,8 +1399,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1406,11 +1439,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1421,264 +1454,279 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-3500</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1008100</v>
+      </c>
+      <c r="E21" s="3">
         <v>1063000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1022000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>919000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1183600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1004400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>853300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>617900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>701200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>634700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>756300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>557000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>656600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>599500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>729100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>518400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>592200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>568900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>778200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>488400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E22" s="3">
         <v>40400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>40300</v>
       </c>
       <c r="F22" s="3">
         <v>40300</v>
       </c>
       <c r="G22" s="3">
+        <v>40300</v>
+      </c>
+      <c r="H22" s="3">
         <v>39300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>30500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>25600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>24300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>24600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>25500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>24300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>24000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>23700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>25000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>25500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>810100</v>
+      </c>
+      <c r="E23" s="3">
         <v>868500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>832000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>732800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1003300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>836300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>695300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>467200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>553000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>486300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>613400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>417600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>519000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>465400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>599200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>393400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>469400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>445300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>655100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>173100</v>
+      </c>
+      <c r="E24" s="3">
         <v>190700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>189200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>158600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>215700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>185800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>159900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>101600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>126400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>101300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>142400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>83400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>111800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>197800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>140900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>174600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>165800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>240900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>637000</v>
+      </c>
+      <c r="E26" s="3">
         <v>677700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>642700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>574300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>787600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>650400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>535400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>365600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>426600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>385000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>471000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>334100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>407200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>364900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>401400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>252500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>294800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>279500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>414200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>637000</v>
+      </c>
+      <c r="E27" s="3">
         <v>677700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>642700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>574300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>787600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>650400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>535400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>365600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>426600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>385000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>471000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>334100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>407200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>364900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>401400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>252500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>294800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>279500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>414200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,8 +1982,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1945,11 +2005,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1957,11 +2017,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>12200</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1969,11 +2029,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>310800</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1987,8 +2047,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,8 +2177,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2150,11 +2219,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2165,78 +2234,84 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>3500</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>637000</v>
+      </c>
+      <c r="E33" s="3">
         <v>677700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>642700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>574300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>787600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>650400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>535400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>365600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>426600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>385000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>483200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>334100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>407200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>364900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>712200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>252500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>294800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>279500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>414200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>637000</v>
+      </c>
+      <c r="E35" s="3">
         <v>677700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>642700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>574300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>787600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>650400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>535400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>365600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>426600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>385000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>483200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>334100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>407200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>364900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>712200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>252500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>294800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>279500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>414200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44407</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44225</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44134</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43952</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43770</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43679</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43588</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43497</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43406</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43315</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43224</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43133</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43042</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42951</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42860</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42769</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,70 +2559,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>313700</v>
+      </c>
+      <c r="E41" s="3">
         <v>688100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1376600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2199400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2959600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2673900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>240300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>276100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>259600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>271100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>235500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>260700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>265300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>284000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>267400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>226200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>214200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>206000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>187900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>200200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2598,256 +2687,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E43" s="3">
         <v>16600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>90800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>111100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>36200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>76500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>103200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>61700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>57800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>114600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>68400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>28600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>108300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>99700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>44300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>10500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>11100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5279300</v>
+      </c>
+      <c r="E44" s="3">
         <v>5099500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5247500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5025800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4391200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4107300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4676800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4496400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4419600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4109800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4097000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3979100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3896400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3594500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3609000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3597200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3463000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3300100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3258800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3488200</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>272800</v>
+      </c>
+      <c r="E45" s="3">
         <v>237600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>199400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>197000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>210500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>194000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>184200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>192900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>178300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>177700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>272700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>275900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>287800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>258900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>263100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>230300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>258600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>232400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>220000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>225400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5992700</v>
+      </c>
+      <c r="E46" s="3">
         <v>6041700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6914200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7533400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7597400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6992500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5177900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5068500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4919100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4583800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4663000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4630300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4517800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4166000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4247900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4153300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3980000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3748900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3677800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3968500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2908,70 +3012,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13909300</v>
+      </c>
+      <c r="E48" s="3">
         <v>13614100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13373300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13045200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12675800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12280900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12074500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11770500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11425800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11148800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2970800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2921900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2857300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2758400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2701300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2654900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2574800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2487300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2434500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2979,7 +3089,7 @@
         <v>5538400</v>
       </c>
       <c r="E49" s="3">
-        <v>5538500</v>
+        <v>5538400</v>
       </c>
       <c r="F49" s="3">
         <v>5538500</v>
@@ -2988,7 +3098,7 @@
         <v>5538500</v>
       </c>
       <c r="H49" s="3">
-        <v>5538600</v>
+        <v>5538500</v>
       </c>
       <c r="I49" s="3">
         <v>5538600</v>
@@ -2997,43 +3107,46 @@
         <v>5538600</v>
       </c>
       <c r="K49" s="3">
+        <v>5538600</v>
+      </c>
+      <c r="L49" s="3">
         <v>5538700</v>
-      </c>
-      <c r="L49" s="3">
-        <v>5538800</v>
       </c>
       <c r="M49" s="3">
         <v>5538800</v>
       </c>
       <c r="N49" s="3">
-        <v>5538900</v>
+        <v>5538800</v>
       </c>
       <c r="O49" s="3">
         <v>5538900</v>
       </c>
       <c r="P49" s="3">
-        <v>5539000</v>
+        <v>5538900</v>
       </c>
       <c r="Q49" s="3">
         <v>5539000</v>
       </c>
       <c r="R49" s="3">
-        <v>5539100</v>
+        <v>5539000</v>
       </c>
       <c r="S49" s="3">
         <v>5539100</v>
       </c>
       <c r="T49" s="3">
-        <v>5539200</v>
+        <v>5539100</v>
       </c>
       <c r="U49" s="3">
         <v>5539200</v>
       </c>
       <c r="V49" s="3">
+        <v>5539200</v>
+      </c>
+      <c r="W49" s="3">
         <v>5539300</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,43 +3272,46 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E52" s="3">
         <v>42400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>36600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>36400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>35700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>34100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>35100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>33900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>33000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>31400</v>
-      </c>
-      <c r="N52" s="3">
-        <v>29900</v>
       </c>
       <c r="O52" s="3">
         <v>29900</v>
@@ -3201,25 +3320,28 @@
         <v>29900</v>
       </c>
       <c r="Q52" s="3">
+        <v>29900</v>
+      </c>
+      <c r="R52" s="3">
         <v>28800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>27400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>26900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>20900</v>
-      </c>
-      <c r="U52" s="3">
-        <v>20800</v>
       </c>
       <c r="V52" s="3">
         <v>20800</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25487800</v>
+      </c>
+      <c r="E54" s="3">
         <v>25236700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>25862600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26153400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25847400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24848300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22825100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22412800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21917500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21304300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13204000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13121000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12943900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12493200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12516900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12374800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12120800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11796400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11672300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11917100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,70 +3519,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3370000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3294400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3614100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3770500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3400600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2954400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2860700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2844200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2727100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2452900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2385500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2336800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2295000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2018300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2009800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1978000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1880700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1622800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1557600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1948100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3469,8 +3602,8 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>600</v>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
         <v>600</v>
@@ -3485,10 +3618,10 @@
         <v>600</v>
       </c>
       <c r="M58" s="3">
+        <v>600</v>
+      </c>
+      <c r="N58" s="3">
         <v>2000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1900</v>
       </c>
       <c r="O58" s="3">
         <v>1900</v>
@@ -3497,273 +3630,288 @@
         <v>1900</v>
       </c>
       <c r="Q58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R58" s="3">
         <v>401300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>401500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>401400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>401200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>501000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>501500</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2109100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2021000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2096700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2115700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2010500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1888300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1682300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1661300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1584600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1503300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>628400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>643500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>618600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>505100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>553800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>558200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>524700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>668100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>564300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>510100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5479100</v>
+      </c>
+      <c r="E60" s="3">
         <v>5315400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5710800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5886200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5411200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4843200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4543000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4506000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4312300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3956700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3015900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2982200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2915500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2525300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2964900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2937800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2806800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2692000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2622800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2959700</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4156800</v>
+      </c>
+      <c r="E61" s="3">
         <v>4130700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4131000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4131600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4089000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3967200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2912000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2762500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2573500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2732100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2862700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2902400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2776800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2862500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2604600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2719600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2683100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2632100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2710600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2673200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9714800</v>
+      </c>
+      <c r="E62" s="3">
         <v>9540700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9359600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9150100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8991200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8828400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8667600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8496000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8282600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8042800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>908000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>880500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>872700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>869100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>821600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>973200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>943900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>943300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>932600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19350700</v>
+      </c>
+      <c r="E66" s="3">
         <v>18986800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19201400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19167900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18491400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17638900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16122600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15764500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15168400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14731600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6786600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6765100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6565000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6256900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6391100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6630600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6433700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6267500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6266000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6555200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4322,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4452,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2429800</v>
+      </c>
+      <c r="E72" s="3">
         <v>2588000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3006100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3346800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3759000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3659800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3162700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3120700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3234900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3074600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2941100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2890100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2928100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2795600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2698400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2334500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2286100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2136400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2015900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1978000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6137100</v>
+      </c>
+      <c r="E76" s="3">
         <v>6249900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6661200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6985500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7356100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7209500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6702500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6648300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6749200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6572700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6417400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6355900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6378900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6236300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6125800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5744200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5687100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5528900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5406300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5361900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44407</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44225</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44134</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43952</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43770</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43679</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43588</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43497</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43406</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43315</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43224</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43133</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43042</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42951</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42860</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42769</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>637000</v>
+      </c>
+      <c r="E81" s="3">
         <v>677700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>642700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>574300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>787600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>650400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>535400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>365600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>426600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>385000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>483200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>334100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>407200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>364900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>712200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>252500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>294800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>279500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>414200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5004,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>158500</v>
+      </c>
+      <c r="E83" s="3">
         <v>154100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>149800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>145800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>141000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>137700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>132400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>126500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>123400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>122500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>117800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>114900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>112200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>109300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>105700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>101000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>99000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>98600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>97500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>614600</v>
+      </c>
+      <c r="E89" s="3">
         <v>703000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>492600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>476200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1171000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1736300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>576900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>530600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>556300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>574200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>629400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>416800</v>
-      </c>
-      <c r="O89" s="3">
-        <v>548600</v>
       </c>
       <c r="P89" s="3">
         <v>548600</v>
       </c>
       <c r="Q89" s="3">
+        <v>548600</v>
+      </c>
+      <c r="R89" s="3">
         <v>659200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>356700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>275800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>510500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>480600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>331100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5484,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-240700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-277700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-330400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-273400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-228700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-195400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-266800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-225000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-148300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-144800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-183500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-179900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-206300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-164600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-157800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-174600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-170500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-143500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-154400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-138100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-239700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-276900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-328900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-272900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-228100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-195000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-266300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-224500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-147300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-144300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-182500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-179500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-205600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-164000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-157400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-173900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-170300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-143400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-149400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-136200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,70 +5769,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-99800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-87300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-88400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-89700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-90600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-80800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-81600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-82400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-82800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-75300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>118300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-271900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-77700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-70000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-70600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-71000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-71300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-68900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-70100</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,70 +6027,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-749200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1114600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-986600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-963500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-657200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>892200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-346300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-289500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-420600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-394300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-472100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-242000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-361700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-368100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-460600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-170700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-97300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-349000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-343600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-179700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5909,66 +6157,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-374400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-688500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-822900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-760200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>285700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2433600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-35800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>35600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-25200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-18700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>16500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>41200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>18100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-12300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>15200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>DG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,293 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44498</v>
+      </c>
+      <c r="E7" s="2">
         <v>44407</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44225</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44134</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43952</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43770</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43679</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43588</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43497</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43406</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43315</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43224</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43133</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43042</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42951</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42860</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42769</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8517800</v>
+      </c>
+      <c r="E8" s="3">
         <v>8650200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8401000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8414500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8199600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8684200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8448400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7157600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6991400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6981800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6623200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6649800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6417500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6443300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6114500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6129400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5903600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5828300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5609600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6009200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5320000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5898400</v>
+      </c>
+      <c r="E9" s="3">
         <v>5912500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5645300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5677800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5631400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5866000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5852800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4884900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4926300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4832800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4620900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4578100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4522400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4468400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4252200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4164000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4137200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4037800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3910600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4108500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3732500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2619400</v>
+      </c>
+      <c r="E10" s="3">
         <v>2737700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2755700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2736700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2568200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2818200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2595600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2272700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2065100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2149000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2002300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2071700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1895100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1974900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1862300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1965400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1766500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1790500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1699000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1900700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1587500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1028,8 +1041,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,8 +1109,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,17 +1135,17 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>31000</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1140,8 +1159,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1149,8 +1168,8 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1158,8 +1177,11 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1223,8 +1245,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1270,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7852300</v>
+      </c>
+      <c r="E17" s="3">
         <v>7800600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7492100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7542300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7426500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7641600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7581700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6436800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6500000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6404000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6110900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6011300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5975300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5897800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5624300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5506000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5486200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5335200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5135800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5328600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4927000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>665500</v>
+      </c>
+      <c r="E18" s="3">
         <v>849600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>908900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>872200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>773100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1042600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>866700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>720800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>491400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>577800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>512300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>638500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>442200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>545500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>490200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>623400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>417400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>493100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>473800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>680600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,8 +1432,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,11 +1475,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1457,276 +1490,291 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-3500</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>827900</v>
+      </c>
+      <c r="E21" s="3">
         <v>1008100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1063000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1022000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>919000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1183600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1004400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>853300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>617900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>701200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>634700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>756300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>557000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>656600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>599500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>729100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>518400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>592200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>568900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>778200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>488400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E22" s="3">
         <v>39400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>40400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>40300</v>
       </c>
       <c r="G22" s="3">
         <v>40300</v>
       </c>
       <c r="H22" s="3">
+        <v>40300</v>
+      </c>
+      <c r="I22" s="3">
         <v>39300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>30500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>25100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>24600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>25500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>24800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>24300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>24000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>23700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>25000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>25500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>626400</v>
+      </c>
+      <c r="E23" s="3">
         <v>810100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>868500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>832000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>732800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1003300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>836300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>695300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>467200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>553000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>486300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>613400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>417600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>519000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>465400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>599200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>393400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>469400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>445300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>655100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>139400</v>
+      </c>
+      <c r="E24" s="3">
         <v>173100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>190700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>189200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>158600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>215700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>185800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>159900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>101600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>126400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>101300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>142400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>83400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>111800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>197800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>140900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>174600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>165800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>240900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,138 +1838,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>487000</v>
+      </c>
+      <c r="E26" s="3">
         <v>637000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>677700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>642700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>574300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>787600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>650400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>535400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>365600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>426600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>385000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>471000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>334100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>407200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>364900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>401400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>252500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>294800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>279500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>414200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>487000</v>
+      </c>
+      <c r="E27" s="3">
         <v>637000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>677700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>642700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>574300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>787600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>650400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>535400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>365600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>426600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>385000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>471000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>334100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>407200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>364900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>401400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>252500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>294800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>279500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>414200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,8 +2042,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2008,11 +2068,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2020,11 +2080,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>12200</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2032,11 +2092,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>310800</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2050,8 +2110,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2178,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,8 +2246,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2222,11 +2291,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2237,81 +2306,87 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>3500</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>487000</v>
+      </c>
+      <c r="E33" s="3">
         <v>637000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>677700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>642700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>574300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>787600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>650400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>535400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>365600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>426600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>385000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>483200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>334100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>407200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>364900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>712200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>252500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>294800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>279500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>414200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2450,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>487000</v>
+      </c>
+      <c r="E35" s="3">
         <v>637000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>677700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>642700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>574300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>787600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>650400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>535400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>365600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>426600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>385000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>483200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>334100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>407200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>364900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>712200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>252500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>294800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>279500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>414200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44498</v>
+      </c>
+      <c r="E38" s="2">
         <v>44407</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44225</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44134</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43952</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43770</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43679</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43588</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43497</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43406</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43315</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43224</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43133</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43042</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42951</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42860</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42769</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2619,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,73 +2645,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>488700</v>
+      </c>
+      <c r="E41" s="3">
         <v>313700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>688100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1376600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2199400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2959600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2673900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>240300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>276100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>259600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>271100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>235500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>260700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>265300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>284000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>267400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>226200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>214200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>206000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>187900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>200200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2690,268 +2779,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>120400</v>
+      </c>
+      <c r="E43" s="3">
         <v>127000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>90800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>111100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>36200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>76500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>103200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>61700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>57800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>114600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>68400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>28600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>108300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>99700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>44300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>10500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>11100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5298900</v>
+      </c>
+      <c r="E44" s="3">
         <v>5279300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5099500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5247500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5025800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4391200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4107300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4676800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4496400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4419600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4109800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4097000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3979100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3896400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3594500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3609000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3597200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3463000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3300100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3258800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3488200</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>273900</v>
+      </c>
+      <c r="E45" s="3">
         <v>272800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>237600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>199400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>197000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>210500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>194000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>184200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>192900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>178300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>177700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>272700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>275900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>287800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>258900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>263100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>230300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>258600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>232400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>220000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>225400</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6181800</v>
+      </c>
+      <c r="E46" s="3">
         <v>5992700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6041700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6914200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7533400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7597400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6992500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5177900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5068500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4919100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4583800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4663000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4630300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4517800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4166000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4247900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4153300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3980000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3748900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3677800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3968500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3015,73 +3119,79 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14160500</v>
+      </c>
+      <c r="E48" s="3">
         <v>13909300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13614100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13373300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13045200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12675800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12280900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12074500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11770500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11425800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11148800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2970800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2921900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2857300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2758400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2701300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2654900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2574800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2487300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2434500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3092,7 +3202,7 @@
         <v>5538400</v>
       </c>
       <c r="F49" s="3">
-        <v>5538500</v>
+        <v>5538400</v>
       </c>
       <c r="G49" s="3">
         <v>5538500</v>
@@ -3101,7 +3211,7 @@
         <v>5538500</v>
       </c>
       <c r="I49" s="3">
-        <v>5538600</v>
+        <v>5538500</v>
       </c>
       <c r="J49" s="3">
         <v>5538600</v>
@@ -3110,43 +3220,46 @@
         <v>5538600</v>
       </c>
       <c r="L49" s="3">
+        <v>5538600</v>
+      </c>
+      <c r="M49" s="3">
         <v>5538700</v>
-      </c>
-      <c r="M49" s="3">
-        <v>5538800</v>
       </c>
       <c r="N49" s="3">
         <v>5538800</v>
       </c>
       <c r="O49" s="3">
-        <v>5538900</v>
+        <v>5538800</v>
       </c>
       <c r="P49" s="3">
         <v>5538900</v>
       </c>
       <c r="Q49" s="3">
-        <v>5539000</v>
+        <v>5538900</v>
       </c>
       <c r="R49" s="3">
         <v>5539000</v>
       </c>
       <c r="S49" s="3">
-        <v>5539100</v>
+        <v>5539000</v>
       </c>
       <c r="T49" s="3">
         <v>5539100</v>
       </c>
       <c r="U49" s="3">
-        <v>5539200</v>
+        <v>5539100</v>
       </c>
       <c r="V49" s="3">
         <v>5539200</v>
       </c>
       <c r="W49" s="3">
+        <v>5539200</v>
+      </c>
+      <c r="X49" s="3">
         <v>5539300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3323,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,46 +3391,49 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E52" s="3">
         <v>47400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>42400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>36600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>36400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>35700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>36300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>34100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>35100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>33900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>33000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>31400</v>
-      </c>
-      <c r="O52" s="3">
-        <v>29900</v>
       </c>
       <c r="P52" s="3">
         <v>29900</v>
@@ -3323,25 +3442,28 @@
         <v>29900</v>
       </c>
       <c r="R52" s="3">
+        <v>29900</v>
+      </c>
+      <c r="S52" s="3">
         <v>28800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>27400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>26900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>20900</v>
-      </c>
-      <c r="V52" s="3">
-        <v>20800</v>
       </c>
       <c r="W52" s="3">
         <v>20800</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3527,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25925300</v>
+      </c>
+      <c r="E54" s="3">
         <v>25487800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>25236700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25862600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26153400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25847400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24848300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22825100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22412800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21917500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21304300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13204000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13121000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12943900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12493200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12516900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12374800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12120800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11796400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11672300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11917100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3623,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,73 +3649,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3532600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3370000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3294400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3614100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3770500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3400600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2954400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2860700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2844200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2727100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2452900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2385500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2336800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2295000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2018300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2009800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1978000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1880700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1622800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1557600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1948100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3605,8 +3738,8 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
-        <v>600</v>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J58" s="3">
         <v>600</v>
@@ -3621,10 +3754,10 @@
         <v>600</v>
       </c>
       <c r="N58" s="3">
+        <v>600</v>
+      </c>
+      <c r="O58" s="3">
         <v>2000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1900</v>
       </c>
       <c r="P58" s="3">
         <v>1900</v>
@@ -3633,285 +3766,300 @@
         <v>1900</v>
       </c>
       <c r="R58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S58" s="3">
         <v>401300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>401500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>401400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>401200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>501000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>501500</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2207900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2109100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2021000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2096700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2115700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2010500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1888300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1682300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1661300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1584600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1503300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>628400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>643500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>618600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>505100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>553800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>558200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>524700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>668100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>564300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>510100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5740500</v>
+      </c>
+      <c r="E60" s="3">
         <v>5479100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5315400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5710800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5886200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5411200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4843200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4543000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4506000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4312300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3956700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3015900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2982200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2915500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2525300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2964900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2937800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2806800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2692000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2622800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2959700</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4127400</v>
+      </c>
+      <c r="E61" s="3">
         <v>4156800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4130700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4131000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4131600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4089000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3967200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2912000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2762500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2573500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2732100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2862700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2902400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2776800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2862500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2604600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2719600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2683100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2632100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2710600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2673200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9867600</v>
+      </c>
+      <c r="E62" s="3">
         <v>9714800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9540700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9359600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9150100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8991200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8828400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8667600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8496000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8282600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8042800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>908000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>880500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>872700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>869100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>821600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>973200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>943900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>943300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>932600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4123,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,8 +4191,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4259,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19735500</v>
+      </c>
+      <c r="E66" s="3">
         <v>19350700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18986800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19201400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19167900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18491400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17638900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16122600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15764500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15168400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14731600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6786600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6765100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6565000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6256900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6391100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6630600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6433700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6267500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6266000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6555200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4355,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4421,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,8 +4489,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4390,8 +4557,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,73 +4625,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2461200</v>
+      </c>
+      <c r="E72" s="3">
         <v>2429800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2588000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3006100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3346800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3759000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3659800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3162700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3120700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3234900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3074600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2941100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2890100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2928100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2795600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2698400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2334500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2286100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2136400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2015900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1978000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4761,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +4829,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +4897,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6189800</v>
+      </c>
+      <c r="E76" s="3">
         <v>6137100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6249900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6661200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6985500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7356100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7209500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6702500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6648300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6749200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6572700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6417400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6355900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6378900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6236300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6125800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5744200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5687100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5528900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5406300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5361900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5033,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44498</v>
+      </c>
+      <c r="E80" s="2">
         <v>44407</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44225</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44134</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43952</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43770</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43679</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43588</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43497</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43406</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43315</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43224</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43133</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43042</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42951</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42860</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42769</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>487000</v>
+      </c>
+      <c r="E81" s="3">
         <v>637000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>677700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>642700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>574300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>787600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>650400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>535400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>365600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>426600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>385000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>483200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>334100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>407200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>364900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>712200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>252500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>294800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>279500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>414200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,73 +5202,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>162300</v>
+      </c>
+      <c r="E83" s="3">
         <v>158500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>154100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>149800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>145800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>141000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>137700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>132400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>126500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>123400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>122500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>117800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>114900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>112200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>109300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>105700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>101000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>99000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>98600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>97500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5336,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5404,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5472,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5540,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5608,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>909200</v>
+      </c>
+      <c r="E89" s="3">
         <v>614600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>703000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>492600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>476200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1171000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1736300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>576900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>530600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>556300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>574200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>629400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>416800</v>
-      </c>
-      <c r="P89" s="3">
-        <v>548600</v>
       </c>
       <c r="Q89" s="3">
         <v>548600</v>
       </c>
       <c r="R89" s="3">
+        <v>548600</v>
+      </c>
+      <c r="S89" s="3">
         <v>659200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>356700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>275800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>510500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>480600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>331100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,73 +5704,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-260900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-240700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-277700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-330400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-273400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-228700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-195400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-266800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-225000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-148300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-144800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-183500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-179900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-206300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-164600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-157800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-174600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-170500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-143500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-154400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-138100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +5838,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +5906,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-258800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-239700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-276900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-328900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-272900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-228100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-195000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-266300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-224500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-147300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-144300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-182500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-179500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-205600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-164000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-157400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-173900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-170300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-143400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-149400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-136200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,73 +6002,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-97300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-98300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-99800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-87300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-88400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-89700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-90600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-80800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-81600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-82400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-82800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-75300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>118300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-271900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-77700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-70000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-70600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-71000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-71300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-68900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-70100</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6136,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6204,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,73 +6272,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-475400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-749200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1114600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-986600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-963500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-657200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>892200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-346300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-289500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-420600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-394300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-472100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-242000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-361700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-368100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-460600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-170700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-97300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-349000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-343600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-179700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6160,69 +6408,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-374400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-688500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-822900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-760200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>285700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2433600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-35800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>35600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-25200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>16500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>41200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>8200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>18100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-12300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>15200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>DG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,305 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E7" s="2">
         <v>44498</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44407</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44225</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44134</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43952</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43770</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43679</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43588</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43497</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43406</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43315</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43224</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43133</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43042</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42951</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42860</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42769</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8651400</v>
+      </c>
+      <c r="E8" s="3">
         <v>8517800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8650200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8401000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8414500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8199600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8684200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8448400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7157600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6991400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6981800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6623200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6649800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6417500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6443300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6114500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6129400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5903600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5828300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5609600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6009200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5320000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5951200</v>
+      </c>
+      <c r="E9" s="3">
         <v>5898400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5912500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5645300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5677800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5631400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5866000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5852800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4884900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4926300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4832800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4620900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4578100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4522400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4468400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4252200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4164000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4137200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4037800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3910600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4108500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3732500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2700200</v>
+      </c>
+      <c r="E10" s="3">
         <v>2619400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2737700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2755700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2736700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2568200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2818200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2595600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2272700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2065100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2149000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2002300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2071700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1895100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1974900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1862300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1965400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1766500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1790500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1699000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1900700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1587500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +1057,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,8 +1128,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1138,17 +1157,17 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>31000</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1162,8 +1181,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1171,8 +1190,8 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1180,8 +1199,11 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1248,8 +1270,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7854800</v>
+      </c>
+      <c r="E17" s="3">
         <v>7852300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7800600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7492100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7542300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7426500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7641600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7581700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6436800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6500000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6404000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6110900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6011300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5975300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5897800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5624300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5506000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5486200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5335200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5135800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5328600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4927000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>796600</v>
+      </c>
+      <c r="E18" s="3">
         <v>665500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>849600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>908900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>872200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>773100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1042600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>866700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>720800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>491400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>577800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>512300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>638500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>442200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>545500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>490200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>623400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>417400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>493100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>473800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>680600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,8 +1465,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1478,11 +1511,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1493,288 +1526,303 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-3500</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>963000</v>
+      </c>
+      <c r="E21" s="3">
         <v>827900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1008100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1063000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1022000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>919000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1183600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1004400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>853300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>617900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>701200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>634700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>756300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>557000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>656600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>599500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>729100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>518400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>592200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>568900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>778200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>488400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E22" s="3">
         <v>39200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>39400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>40400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>40300</v>
       </c>
       <c r="H22" s="3">
         <v>40300</v>
       </c>
       <c r="I22" s="3">
+        <v>40300</v>
+      </c>
+      <c r="J22" s="3">
         <v>39300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>30500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>24800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>25900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>25100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>25500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>24800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>24300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>24000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>23700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>25000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>25500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>758200</v>
+      </c>
+      <c r="E23" s="3">
         <v>626400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>810100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>868500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>832000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>732800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1003300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>836300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>695300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>467200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>553000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>486300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>613400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>417600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>519000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>465400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>599200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>393400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>469400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>445300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>655100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>160700</v>
+      </c>
+      <c r="E24" s="3">
         <v>139400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>173100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>190700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>189200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>158600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>215700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>185800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>159900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>101600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>126400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>101300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>142400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>83400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>111800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>197800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>140900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>174600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>165800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>240900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>597400</v>
+      </c>
+      <c r="E26" s="3">
         <v>487000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>637000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>677700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>642700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>574300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>787600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>650400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>535400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>365600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>426600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>385000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>471000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>334100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>407200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>364900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>401400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>252500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>294800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>279500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>414200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>597400</v>
+      </c>
+      <c r="E27" s="3">
         <v>487000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>637000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>677700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>642700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>574300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>787600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>650400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>535400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>365600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>426600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>385000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>471000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>334100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>407200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>364900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>401400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>252500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>294800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>279500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>414200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,8 +2102,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2071,11 +2131,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2083,11 +2143,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>12200</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2095,11 +2155,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>310800</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2113,8 +2173,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,8 +2315,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2294,11 +2363,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2309,84 +2378,90 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>3500</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>597400</v>
+      </c>
+      <c r="E33" s="3">
         <v>487000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>637000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>677700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>642700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>574300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>787600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>650400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>535400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>365600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>426600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>385000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>483200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>334100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>407200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>364900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>712200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>252500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>294800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>279500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>414200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>597400</v>
+      </c>
+      <c r="E35" s="3">
         <v>487000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>637000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>677700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>642700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>574300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>787600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>650400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>535400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>365600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>426600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>385000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>483200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>334100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>407200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>364900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>712200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>252500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>294800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>279500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>414200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E38" s="2">
         <v>44498</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44407</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44225</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44134</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43952</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43770</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43679</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43588</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43497</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43406</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43315</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43224</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43133</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43042</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42951</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42860</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42769</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,76 +2731,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>344800</v>
+      </c>
+      <c r="E41" s="3">
         <v>488700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>313700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>688100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1376600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2199400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2959600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2673900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>240300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>276100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>259600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>271100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>235500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>260700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>265300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>284000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>267400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>226200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>214200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>206000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>187900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>200200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2782,280 +2871,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>97400</v>
+      </c>
+      <c r="E43" s="3">
         <v>120400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>127000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>90800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>111100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>36200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>76500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>103200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>61700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>25200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>57800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>114600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>68400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>28600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>108300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>99700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>44300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>10500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>11100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5614300</v>
+      </c>
+      <c r="E44" s="3">
         <v>5298900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5279300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5099500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5247500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5025800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4391200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4107300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4676800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4496400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4419600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4109800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4097000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3979100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3896400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3594500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3609000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3597200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3463000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3300100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3258800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3488200</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>247300</v>
+      </c>
+      <c r="E45" s="3">
         <v>273900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>272800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>237600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>199400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>197000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>210500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>194000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>184200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>192900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>178300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>177700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>272700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>275900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>287800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>258900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>263100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>230300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>258600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>232400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>220000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>225400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6303800</v>
+      </c>
+      <c r="E46" s="3">
         <v>6181800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5992700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6041700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6914200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7533400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7597400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6992500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5177900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5068500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4919100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4583800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4663000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4630300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4517800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4166000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4247900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4153300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3980000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3748900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3677800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3968500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3122,81 +3226,87 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14439100</v>
+      </c>
+      <c r="E48" s="3">
         <v>14160500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13909300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13614100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13373300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13045200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12675800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12280900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12074500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11770500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11425800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11148800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2970800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2921900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2857300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2758400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2701300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2654900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2574800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2487300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2434500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5538400</v>
+        <v>5538300</v>
       </c>
       <c r="E49" s="3">
         <v>5538400</v>
@@ -3205,7 +3315,7 @@
         <v>5538400</v>
       </c>
       <c r="G49" s="3">
-        <v>5538500</v>
+        <v>5538400</v>
       </c>
       <c r="H49" s="3">
         <v>5538500</v>
@@ -3214,7 +3324,7 @@
         <v>5538500</v>
       </c>
       <c r="J49" s="3">
-        <v>5538600</v>
+        <v>5538500</v>
       </c>
       <c r="K49" s="3">
         <v>5538600</v>
@@ -3223,43 +3333,46 @@
         <v>5538600</v>
       </c>
       <c r="M49" s="3">
+        <v>5538600</v>
+      </c>
+      <c r="N49" s="3">
         <v>5538700</v>
-      </c>
-      <c r="N49" s="3">
-        <v>5538800</v>
       </c>
       <c r="O49" s="3">
         <v>5538800</v>
       </c>
       <c r="P49" s="3">
-        <v>5538900</v>
+        <v>5538800</v>
       </c>
       <c r="Q49" s="3">
         <v>5538900</v>
       </c>
       <c r="R49" s="3">
-        <v>5539000</v>
+        <v>5538900</v>
       </c>
       <c r="S49" s="3">
         <v>5539000</v>
       </c>
       <c r="T49" s="3">
-        <v>5539100</v>
+        <v>5539000</v>
       </c>
       <c r="U49" s="3">
         <v>5539100</v>
       </c>
       <c r="V49" s="3">
-        <v>5539200</v>
+        <v>5539100</v>
       </c>
       <c r="W49" s="3">
         <v>5539200</v>
       </c>
       <c r="X49" s="3">
+        <v>5539200</v>
+      </c>
+      <c r="Y49" s="3">
         <v>5539300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,49 +3510,52 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E52" s="3">
         <v>44600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>47400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>42400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>36600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>35700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>36300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>34100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>35100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>33900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>33000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>31400</v>
-      </c>
-      <c r="P52" s="3">
-        <v>29900</v>
       </c>
       <c r="Q52" s="3">
         <v>29900</v>
@@ -3445,25 +3564,28 @@
         <v>29900</v>
       </c>
       <c r="S52" s="3">
+        <v>29900</v>
+      </c>
+      <c r="T52" s="3">
         <v>28800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>27400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>26900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>20900</v>
-      </c>
-      <c r="W52" s="3">
-        <v>20800</v>
       </c>
       <c r="X52" s="3">
         <v>20800</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26327400</v>
+      </c>
+      <c r="E54" s="3">
         <v>25925300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>25487800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25236700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25862600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26153400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25847400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24848300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22825100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22412800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21917500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>21304300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13204000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13121000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12943900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12493200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12516900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12374800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12120800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11796400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11672300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11917100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,76 +3779,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3738600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3532600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3370000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3294400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3614100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3770500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2954400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2860700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2844200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2727100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2452900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2385500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2336800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2295000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2018300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2009800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1978000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1880700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1622800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1557600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1948100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3741,8 +3874,8 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
-        <v>600</v>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>600</v>
@@ -3757,10 +3890,10 @@
         <v>600</v>
       </c>
       <c r="O58" s="3">
+        <v>600</v>
+      </c>
+      <c r="P58" s="3">
         <v>2000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1900</v>
       </c>
       <c r="Q58" s="3">
         <v>1900</v>
@@ -3769,297 +3902,312 @@
         <v>1900</v>
       </c>
       <c r="S58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T58" s="3">
         <v>401300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>401500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>401400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>401200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>501000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>501500</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2240800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2207900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2109100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2021000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2096700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2115700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2010500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1888300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1682300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1661300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1584600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1503300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>628400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>643500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>618600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>505100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>553800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>558200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>524700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>668100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>564300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>510100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5979400</v>
+      </c>
+      <c r="E60" s="3">
         <v>5740500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5479100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5315400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5710800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5886200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5411200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4843200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4543000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4506000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4312300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3956700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3015900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2982200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2915500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2525300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2964900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2937800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2806800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2692000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2622800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2959700</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4172100</v>
+      </c>
+      <c r="E61" s="3">
         <v>4127400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4156800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4130700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4131000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4131600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4089000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3967200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2912000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2762500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2573500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2732100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2862700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2902400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2776800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2862500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2604600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2719600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2683100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2632100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2710600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2673200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9914000</v>
+      </c>
+      <c r="E62" s="3">
         <v>9867600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9714800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9540700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9359600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9150100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8991200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8828400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8667600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8496000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8282600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8042800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>908000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>880500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>872700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>869100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>821600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>973200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>943900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>943300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>932600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20065400</v>
+      </c>
+      <c r="E66" s="3">
         <v>19735500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19350700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18986800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19201400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19167900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18491400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17638900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16122600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15764500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15168400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14731600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6786600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6765100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6565000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6256900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6391100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6630600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6433700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6267500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6266000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6555200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4656,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4560,8 +4727,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4798,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2474000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2461200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2429800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2588000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3006100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3346800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3759000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3659800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3162700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3120700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3234900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3074600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2941100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2890100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2928100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2795600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2698400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2334500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2286100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2136400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2015900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1978000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6262000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6189800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6137100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6249900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6661200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6985500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7356100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7209500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6702500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6648300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6749200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6572700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6417400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6355900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6378900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6236300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6125800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5744200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5687100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5528900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5406300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5361900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E80" s="2">
         <v>44498</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44407</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44225</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44134</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43952</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43770</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43679</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43588</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43497</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43406</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43315</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43224</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43133</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43042</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42951</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42860</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42769</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>597400</v>
+      </c>
+      <c r="E81" s="3">
         <v>487000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>637000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>677700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>642700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>574300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>787600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>650400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>535400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>365600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>426600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>385000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>483200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>334100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>407200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>364900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>712200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>252500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>294800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>279500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>414200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,76 +5400,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>166400</v>
+      </c>
+      <c r="E83" s="3">
         <v>162300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>158500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>154100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>149800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>145800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>141000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>137700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>132400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>126500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>123400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>122500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>117800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>114900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>112200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>109300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>105700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>101000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>99000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>98600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>97500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>639100</v>
+      </c>
+      <c r="E89" s="3">
         <v>909200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>614600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>703000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>492600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>476200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1171000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1736300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>576900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>530600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>556300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>574200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>629400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>416800</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>548600</v>
       </c>
       <c r="R89" s="3">
         <v>548600</v>
       </c>
       <c r="S89" s="3">
+        <v>548600</v>
+      </c>
+      <c r="T89" s="3">
         <v>659200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>356700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>275800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>510500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>480600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>331100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,76 +5924,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-291100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-260900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-240700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-277700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-330400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-273400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-228700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-195400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-266800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-225000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-148300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-144800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-183500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-179900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-206300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-164600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-157800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-174600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-170500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-143500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-154400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-138100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-290100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-258800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-239700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-276900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-328900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-272900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-228100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-195000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-266300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-224500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-147300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-144300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-182500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-179500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-205600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-164000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-157400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-173900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-170300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-143400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-149400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-136200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,76 +6235,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-96800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-97300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-98300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-99800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-87300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-88400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-89700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-90600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-80800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-81600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-82400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-82800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-75300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>118300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-271900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-77700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-70000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-70600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-71000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-71300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-68900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-70100</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,76 +6517,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-492800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-475400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-749200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1114600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-986600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-963500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-657200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>892200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-346300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-289500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-420600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-394300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-472100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-242000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-361700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-368100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-460600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-170700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-97300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-349000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-343600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-179700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6411,72 +6659,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-143800</v>
+      </c>
+      <c r="E102" s="3">
         <v>175000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-374400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-688500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-822900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-760200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>285700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2433600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-35800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>35600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-25200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-18700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>16500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>41200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>12000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>8200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>18100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-12300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>15200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>DG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,305 +665,329 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44680</v>
+      </c>
+      <c r="F7" s="2">
         <v>44589</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44498</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44407</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44225</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44134</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43952</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43770</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43679</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43588</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43497</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43406</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43315</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43224</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43133</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43042</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42951</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42860</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42769</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9425700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8751400</v>
+      </c>
+      <c r="F8" s="3">
         <v>8651400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>8517800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>8650200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>8401000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>8414500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>8199600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8684200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>8448400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7157600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6991400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6981800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>6623200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6649800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>6417500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>6443300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>6114500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>6129400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>5903600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>5828300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>5609600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>6009200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>5320000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6377500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6013000</v>
+      </c>
+      <c r="F9" s="3">
         <v>5951200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>5898400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>5912500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>5645300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>5677800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>5631400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5866000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5852800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4884900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4926300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4832800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4620900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4578100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>4522400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4468400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>4252200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>4164000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>4137200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>4037800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>3910600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>4108500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>3732500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3048200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2738400</v>
+      </c>
+      <c r="F10" s="3">
         <v>2700200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2619400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2737700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2755700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2736700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2568200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2818200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2595600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2272700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2065100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2149000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2002300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2071700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1895100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1974900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1862300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1965400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1766500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1790500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1699000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1900700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1587500</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,8 +1013,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1086,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,8 +1163,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,20 +1198,20 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>31000</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1184,26 +1222,32 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,8 +1317,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1347,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8512300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8005200</v>
+      </c>
+      <c r="F17" s="3">
         <v>7854800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>7852300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7800600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>7492100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7542300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>7426500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7641600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7581700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6436800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6500000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6404000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6110900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6011300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5975300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5897800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5624300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>5506000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>5486200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>5335200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>5135800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>5328600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>4927000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>913400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>746200</v>
+      </c>
+      <c r="F18" s="3">
         <v>796600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>665500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>849600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>908900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>872200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>773100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1042600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>866700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>720800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>491400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>577800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>512300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>638500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>442200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>545500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>490200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>623400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>417400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>493100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>473800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>680600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,8 +1530,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1514,14 +1580,14 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1529,300 +1595,330 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-3500</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1090600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>918700</v>
+      </c>
+      <c r="F21" s="3">
         <v>963000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>827900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1008100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1063000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1022000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>919000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1183600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1004400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>853300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>617900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>701200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>634700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>756300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>557000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>656600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>599500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>729100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>518400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>592200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>568900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>778200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>488400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>39700</v>
+      </c>
+      <c r="F22" s="3">
         <v>38500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>39200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>39400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>40400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>40300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>40300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>39300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>30500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>25600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>24300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>24800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>25900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>25100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>24600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>25500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>24800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>24300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>24000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>23700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>25000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>25500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>870300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>706500</v>
+      </c>
+      <c r="F23" s="3">
         <v>758200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>626400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>810100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>868500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>832000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>732800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1003300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>836300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>695300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>467200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>553000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>486300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>613400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>417600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>519000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>465400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>599200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>393400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>469400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>445300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>655100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>192300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>153800</v>
+      </c>
+      <c r="F24" s="3">
         <v>160700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>139400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>173100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>190700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>189200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>158600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>215700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>185800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>159900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>101600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>126400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>101300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>142400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>83400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>111800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>100600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>197800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>140900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>174600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>165800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>240900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,150 +1988,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>678000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>552700</v>
+      </c>
+      <c r="F26" s="3">
         <v>597400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>487000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>637000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>677700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>642700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>574300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>787600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>650400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>535400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>365600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>426600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>385000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>471000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>334100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>407200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>364900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>401400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>252500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>294800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>279500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>414200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>678000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>552700</v>
+      </c>
+      <c r="F27" s="3">
         <v>597400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>487000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>637000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>677700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>642700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>574300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>787600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>650400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>535400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>365600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>426600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>385000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>471000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>334100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>407200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>364900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>401400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>252500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>294800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>279500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>414200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2105,67 +2219,73 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>12200</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>12200</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>310800</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>310800</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2176,8 +2296,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2373,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,8 +2450,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2366,14 +2504,14 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2381,87 +2519,99 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>3500</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>678000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>552700</v>
+      </c>
+      <c r="F33" s="3">
         <v>597400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>487000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>637000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>677700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>642700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>574300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>787600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>650400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>535400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>365600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>426600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>385000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>483200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>334100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>407200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>364900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>712200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>252500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>294800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>279500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>414200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2681,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>678000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>552700</v>
+      </c>
+      <c r="F35" s="3">
         <v>597400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>487000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>637000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>677700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>642700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>574300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>787600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>650400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>535400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>365600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>426600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>385000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>483200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>334100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>407200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>364900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>712200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>252500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>294800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>279500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>414200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44680</v>
+      </c>
+      <c r="F38" s="2">
         <v>44589</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44498</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44407</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44225</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44134</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43952</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43770</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43679</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43588</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43497</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43406</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43315</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43224</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43133</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43042</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42951</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42860</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42769</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2873,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,79 +2902,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>326300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>335600</v>
+      </c>
+      <c r="F41" s="3">
         <v>344800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>488700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>313700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>688100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1376600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2199400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2959600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2673900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>240300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>276100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>259600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>271100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>235500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>260700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>265300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>284000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>267400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>226200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>214200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>206000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>187900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>200200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2874,292 +3052,322 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>33600</v>
+      </c>
+      <c r="F43" s="3">
         <v>97400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>120400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>127000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>16600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>90800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>111100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>36200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>17200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>76500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>103200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>61700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>25200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>57800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>114600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>68400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>28600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>108300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>99700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>44300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>10500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>11100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6935900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>6087400</v>
+      </c>
+      <c r="F44" s="3">
         <v>5614300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>5298900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>5279300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>5099500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>5247500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>5025800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>4391200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>4107300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>4676800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>4496400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>4419600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>4109800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>4097000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>3979100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>3896400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>3594500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>3609000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>3597200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>3463000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>3300100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>3258800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>3488200</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>327500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>280300</v>
+      </c>
+      <c r="F45" s="3">
         <v>247300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>273900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>272800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>237600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>199400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>197000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>210500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>194000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>184200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>192900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>178300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>177700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>272700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>275900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>287800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>258900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>263100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>230300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>258600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>232400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>220000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>225400</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7682900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6736900</v>
+      </c>
+      <c r="F46" s="3">
         <v>6303800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6181800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>5992700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>6041700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>6914200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>7533400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7597400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6992500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5177900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5068500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4919100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4583800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4663000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4630300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4517800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4166000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4247900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>4153300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3980000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>3748900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>3677800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>3968500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3229,79 +3437,91 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14967400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>14634200</v>
+      </c>
+      <c r="F48" s="3">
         <v>14439100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>14160500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>13909300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>13614100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>13373300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>13045200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>12675800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>12280900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>12074500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>11770500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>11425800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>11148800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2970800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2921900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2857300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2758400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2701300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2654900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2574800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2487300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>2434500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3309,70 +3529,76 @@
         <v>5538300</v>
       </c>
       <c r="E49" s="3">
-        <v>5538400</v>
+        <v>5538300</v>
       </c>
       <c r="F49" s="3">
-        <v>5538400</v>
+        <v>5538300</v>
       </c>
       <c r="G49" s="3">
         <v>5538400</v>
       </c>
       <c r="H49" s="3">
-        <v>5538500</v>
+        <v>5538400</v>
       </c>
       <c r="I49" s="3">
-        <v>5538500</v>
+        <v>5538400</v>
       </c>
       <c r="J49" s="3">
         <v>5538500</v>
       </c>
       <c r="K49" s="3">
-        <v>5538600</v>
+        <v>5538500</v>
       </c>
       <c r="L49" s="3">
-        <v>5538600</v>
+        <v>5538500</v>
       </c>
       <c r="M49" s="3">
         <v>5538600</v>
       </c>
       <c r="N49" s="3">
+        <v>5538600</v>
+      </c>
+      <c r="O49" s="3">
+        <v>5538600</v>
+      </c>
+      <c r="P49" s="3">
         <v>5538700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5538800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5538800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>5538900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>5538900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>5539000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>5539000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>5539100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>5539100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>5539200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>5539200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>5539300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3668,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,79 +3745,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>46900</v>
+      </c>
+      <c r="F52" s="3">
         <v>46100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>44600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>47400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>42400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>36600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>36400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>35700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>36300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>34100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>35100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>33900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>33000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>31400</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>29900</v>
-      </c>
-      <c r="R52" s="3">
-        <v>29900</v>
       </c>
       <c r="S52" s="3">
         <v>29900</v>
       </c>
       <c r="T52" s="3">
+        <v>29900</v>
+      </c>
+      <c r="U52" s="3">
+        <v>29900</v>
+      </c>
+      <c r="V52" s="3">
         <v>28800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>27400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>26900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>20900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>20800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3899,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28239300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>26956300</v>
+      </c>
+      <c r="F54" s="3">
         <v>26327400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>25925300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>25487800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>25236700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>25862600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>26153400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>25847400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>24848300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>22825100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>22412800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>21917500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>21304300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>13204000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>13121000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>12943900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>12493200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>12516900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>12374800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>12120800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>11796400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>11672300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>11917100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +4009,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,87 +4038,95 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4358400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3906900</v>
+      </c>
+      <c r="F57" s="3">
         <v>3738600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3532600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3370000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3294400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3614100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3770500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3400600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2954400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2860700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2844200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2727100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2452900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2385500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2336800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2295000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2018300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2009800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1978000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1880700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1622800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1557600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1948100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>900600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>900600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -3877,11 +4143,11 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>600</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>600</v>
@@ -3893,321 +4159,351 @@
         <v>600</v>
       </c>
       <c r="P58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>600</v>
+      </c>
+      <c r="R58" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1900</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1900</v>
       </c>
       <c r="S58" s="3">
         <v>1900</v>
       </c>
       <c r="T58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V58" s="3">
         <v>401300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>401500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>401400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>401200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>501000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>501500</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2307800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2144400</v>
+      </c>
+      <c r="F59" s="3">
         <v>2240800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2207900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2109100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2021000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2096700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2115700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2010500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1888300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1682300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1661300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1584600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1503300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>628400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>643500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>618600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>505100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>553800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>558200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>524700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>668100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>564300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>510100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7566800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6951800</v>
+      </c>
+      <c r="F60" s="3">
         <v>5979400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5740500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5479100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5315400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5710800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5886200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5411200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4843200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4543000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4506000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4312300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3956700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3015900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2982200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2915500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2525300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2964900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2937800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2806800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2692000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2622800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2959700</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4290700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3947500</v>
+      </c>
+      <c r="F61" s="3">
         <v>4172100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4127400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4156800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4130700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4131000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4131600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4089000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3967200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2912000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2762500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2573500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2732100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2862700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2902400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2776800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2862500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2604600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2719600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2683100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>2632100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>2710600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>2673200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10193300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10095400</v>
+      </c>
+      <c r="F62" s="3">
         <v>9914000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>9867600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>9714800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>9540700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>9359600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>9150100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>8991200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>8828400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>8667600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>8496000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>8282600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>8042800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>908000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>880500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>872700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>869100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>821600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>973200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>943900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>943300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>932600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4573,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,8 +4650,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4727,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22050800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>20994700</v>
+      </c>
+      <c r="F66" s="3">
         <v>20065400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>19735500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>19350700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>18986800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>19201400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>19167900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>18491400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>17638900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>16122600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>15764500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>15168400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>14731600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6786600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6765100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6565000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6256900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6391100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>6630600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6433700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>6267500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>6266000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>6555200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4837,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4910,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,8 +4987,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4730,8 +5064,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +5141,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2364100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2157600</v>
+      </c>
+      <c r="F72" s="3">
         <v>2474000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2461200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2429800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2588000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>3006100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>3346800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>3759000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>3659800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>3162700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3120700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3234900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3074600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2941100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>2890100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>2928100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>2795600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>2698400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>2334500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>2286100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>2136400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>2015900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1978000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5295,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5372,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5449,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6188500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5961600</v>
+      </c>
+      <c r="F76" s="3">
         <v>6262000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>6189800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6137100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>6249900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6661200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6985500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7356100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7209500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6702500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6648300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6749200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6572700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6417400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>6355900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>6378900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>6236300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>6125800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>5744200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>5687100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>5528900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>5406300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>5361900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5603,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44680</v>
+      </c>
+      <c r="F80" s="2">
         <v>44589</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44498</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44407</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44225</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44134</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43952</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43770</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43679</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43588</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43497</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43406</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43315</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43224</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43133</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43042</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42951</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42860</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42769</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>678000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>552700</v>
+      </c>
+      <c r="F81" s="3">
         <v>597400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>487000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>637000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>677700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>642700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>574300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>787600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>650400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>535400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>365600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>426600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>385000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>483200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>334100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>407200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>364900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>712200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>252500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>294800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>279500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>414200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,79 +5795,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>177200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>172600</v>
+      </c>
+      <c r="F83" s="3">
         <v>166400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>162300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>158500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>154100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>149800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>145800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>141000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>137700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>132400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>126500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>123400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>122500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>117800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>114900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>112200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>109300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>105700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>101000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>99000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>98600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>97500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5945,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +6022,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +6099,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +6176,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6253,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>498500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>449500</v>
+      </c>
+      <c r="F89" s="3">
         <v>639100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>909200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>614600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>703000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>492600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>476200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1171000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1736300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>576900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>530600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>556300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>574200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>629400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>416800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>548600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>548600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>659200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>356700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>275800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>510500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>480600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>331100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,79 +6363,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-377200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-281600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-291100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-260900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-240700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-277700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-330400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-273400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-228700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-195400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-266800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-225000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-148300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-144800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-183500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-179900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-206300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-164600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-157800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-174600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-170500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-143500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-154400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-138100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6513,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6590,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-375800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-280800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-290100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-258800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-239700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-276900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-328900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-272900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-228100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-195000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-266300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-224500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-147300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-144300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-182500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-179500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-205600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-164000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-157400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-173900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-170300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-143400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-149400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-136200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,79 +6700,87 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-124200</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-125300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-96800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-97300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-98300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-99800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-87300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-88400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-89700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-90600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-80800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-81600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-82400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-82800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-75300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>118300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-271900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-77700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-70000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-70600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-71000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-71300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-68900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-70100</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6850,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6927,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,79 +7004,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-132100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-177900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-492800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-475400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-749200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1114600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-986600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-963500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-657200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>892200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-346300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-289500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-420600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-394300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-472100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-242000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-361700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-368100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-460600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-170700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-97300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-349000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-343600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-179700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6662,75 +7158,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-143800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>175000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-374400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-688500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-822900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-760200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>285700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2433600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-35800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>16500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-11500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>35600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-25200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-4600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-18700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>16500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>41200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>12000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>8200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>18100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-12300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>15200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>DG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,329 +665,341 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44862</v>
+      </c>
+      <c r="E7" s="2">
         <v>44771</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44680</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44589</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44498</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44407</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44225</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44134</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43952</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43770</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43679</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43588</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43497</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43406</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43315</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43224</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43133</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43042</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42951</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42860</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42769</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9464900</v>
+      </c>
+      <c r="E8" s="3">
         <v>9425700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8751400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8651400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8517800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8650200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8401000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8414500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8199600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8684200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8448400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7157600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6991400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6981800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6623200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6649800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6417500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6443300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6114500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6129400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5903600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5828300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5609600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6009200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5320000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6579700</v>
+      </c>
+      <c r="E9" s="3">
         <v>6377500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6013000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5951200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5898400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5912500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5645300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5677800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5631400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5866000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5852800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4884900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4926300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4832800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4620900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4578100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4522400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4468400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4252200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4164000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4137200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4037800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3910600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4108500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3732500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2885200</v>
+      </c>
+      <c r="E10" s="3">
         <v>3048200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2738400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2700200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2619400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2737700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2755700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2736700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2568200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2818200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2595600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2272700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2065100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2149000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2002300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2071700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1895100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1974900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1862300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1965400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1766500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1790500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1699000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1900700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1587500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,8 +1027,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1105,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,31 +1185,34 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1204,17 +1223,17 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>31000</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1228,8 +1247,8 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1237,8 +1256,8 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
@@ -1246,8 +1265,11 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1323,8 +1345,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1374,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8729300</v>
+      </c>
+      <c r="E17" s="3">
         <v>8512300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8005200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7854800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7852300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7800600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7492100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7542300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7426500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7641600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7581700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6436800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6500000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6404000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6110900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6011300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5975300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5897800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5624300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5506000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5486200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5335200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5135800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5328600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4927000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>735600</v>
+      </c>
+      <c r="E18" s="3">
         <v>913400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>746200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>796600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>665500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>849600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>908900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>872200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>773100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1042600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>866700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>720800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>491400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>577800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>512300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>638500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>442200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>545500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>490200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>623400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>417400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>493100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>473800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>680600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,13 +1564,14 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1586,11 +1619,11 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1000</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1601,324 +1634,339 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>917900</v>
+      </c>
+      <c r="E21" s="3">
         <v>1090600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>918700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>963000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>827900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1008100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1063000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1022000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>919000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1183600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1004400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>853300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>617900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>701200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>634700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>756300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>557000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>656600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>599500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>729100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>518400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>592200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>568900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>778200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>488400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E22" s="3">
         <v>43100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>39700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>38500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>39200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>39400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>40400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>40300</v>
       </c>
       <c r="K22" s="3">
         <v>40300</v>
       </c>
       <c r="L22" s="3">
+        <v>40300</v>
+      </c>
+      <c r="M22" s="3">
         <v>39300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>30500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>25600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>24300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>25900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>25100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>24600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>25500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>24800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>24300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>24000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>23700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>25000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>25500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>681400</v>
+      </c>
+      <c r="E23" s="3">
         <v>870300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>706500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>758200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>626400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>810100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>868500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>832000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>732800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1003300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>836300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>695300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>467200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>553000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>486300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>613400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>417600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>519000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>465400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>599200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>393400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>469400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>445300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>655100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>155300</v>
+      </c>
+      <c r="E24" s="3">
         <v>192300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>153800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>160700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>139400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>173100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>190700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>189200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>158600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>215700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>185800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>159900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>101600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>126400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>101300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>142400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>83400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>111800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>197800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>140900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>174600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>165800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>240900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1994,162 +2042,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>526200</v>
+      </c>
+      <c r="E26" s="3">
         <v>678000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>552700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>597400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>487000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>637000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>677700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>642700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>574300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>787600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>650400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>535400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>365600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>426600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>385000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>471000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>334100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>407200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>364900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>401400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>252500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>294800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>279500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>414200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>526200</v>
+      </c>
+      <c r="E27" s="3">
         <v>678000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>552700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>597400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>487000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>637000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>677700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>642700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>574300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>787600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>650400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>535400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>365600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>426600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>385000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>471000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>334100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>407200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>364900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>401400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>252500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>294800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>279500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>414200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2225,8 +2282,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2251,8 +2311,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2260,11 +2320,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2272,11 +2332,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>12200</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2284,11 +2344,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>310800</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2302,8 +2362,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2442,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,13 +2522,16 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2510,11 +2579,11 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>1000</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2525,93 +2594,99 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>3500</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>526200</v>
+      </c>
+      <c r="E33" s="3">
         <v>678000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>552700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>597400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>487000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>637000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>677700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>642700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>574300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>787600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>650400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>535400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>365600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>426600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>385000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>483200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>334100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>407200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>364900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>712200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>252500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>294800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>279500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>414200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2762,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>526200</v>
+      </c>
+      <c r="E35" s="3">
         <v>678000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>552700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>597400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>487000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>637000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>677700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>642700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>574300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>787600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>650400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>535400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>365600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>426600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>385000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>483200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>334100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>407200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>364900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>712200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>252500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>294800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>279500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>414200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44862</v>
+      </c>
+      <c r="E38" s="2">
         <v>44771</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44680</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44589</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44498</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44407</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44225</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44134</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43952</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43770</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43679</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43588</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43497</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43406</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43315</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43224</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43133</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43042</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42951</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42860</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42769</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +2959,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,85 +2989,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>362700</v>
+      </c>
+      <c r="E41" s="3">
         <v>326300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>335600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>344800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>488700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>313700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>688100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1376600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2199400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2959600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2673900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>240300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>276100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>259600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>271100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>235500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>260700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>265300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>284000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>267400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>226200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>214200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>206000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>187900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>200200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3058,316 +3147,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>188100</v>
+      </c>
+      <c r="E43" s="3">
         <v>93300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>33600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>97400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>120400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>127000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>90800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>111100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>36200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>76500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>103200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>61700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>25200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>57800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>114600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>68400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>28600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>108300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>99700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>44300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>10500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>11100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7144700</v>
+      </c>
+      <c r="E44" s="3">
         <v>6935900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6087400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5614300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5298900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5279300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5099500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5247500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5025800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4391200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4107300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4676800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4496400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4419600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4109800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4097000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3979100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3896400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3594500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3609000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3597200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3463000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3300100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3258800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3488200</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>321500</v>
+      </c>
+      <c r="E45" s="3">
         <v>327500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>280300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>247300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>273900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>272800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>237600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>199400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>197000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>210500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>194000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>184200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>192900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>178300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>177700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>272700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>275900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>287800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>258900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>263100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>230300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>258600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>232400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>220000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>225400</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8017000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7682900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6736900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6303800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6181800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5992700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6041700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6914200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7533400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7597400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6992500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5177900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5068500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4919100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4583800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4663000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4630300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4517800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4166000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4247900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4153300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3980000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3748900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3677800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3968500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3443,85 +3547,91 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15396800</v>
+      </c>
+      <c r="E48" s="3">
         <v>14967400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14634200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14439100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14160500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13909300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13614100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13373300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13045200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12675800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12280900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12074500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11770500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11425800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11148800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2970800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2921900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2857300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2758400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2701300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2654900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2574800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2487300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2434500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3535,7 +3645,7 @@
         <v>5538300</v>
       </c>
       <c r="G49" s="3">
-        <v>5538400</v>
+        <v>5538300</v>
       </c>
       <c r="H49" s="3">
         <v>5538400</v>
@@ -3544,7 +3654,7 @@
         <v>5538400</v>
       </c>
       <c r="J49" s="3">
-        <v>5538500</v>
+        <v>5538400</v>
       </c>
       <c r="K49" s="3">
         <v>5538500</v>
@@ -3553,7 +3663,7 @@
         <v>5538500</v>
       </c>
       <c r="M49" s="3">
-        <v>5538600</v>
+        <v>5538500</v>
       </c>
       <c r="N49" s="3">
         <v>5538600</v>
@@ -3562,43 +3672,46 @@
         <v>5538600</v>
       </c>
       <c r="P49" s="3">
+        <v>5538600</v>
+      </c>
+      <c r="Q49" s="3">
         <v>5538700</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>5538800</v>
       </c>
       <c r="R49" s="3">
         <v>5538800</v>
       </c>
       <c r="S49" s="3">
-        <v>5538900</v>
+        <v>5538800</v>
       </c>
       <c r="T49" s="3">
         <v>5538900</v>
       </c>
       <c r="U49" s="3">
-        <v>5539000</v>
+        <v>5538900</v>
       </c>
       <c r="V49" s="3">
         <v>5539000</v>
       </c>
       <c r="W49" s="3">
-        <v>5539100</v>
+        <v>5539000</v>
       </c>
       <c r="X49" s="3">
         <v>5539100</v>
       </c>
       <c r="Y49" s="3">
-        <v>5539200</v>
+        <v>5539100</v>
       </c>
       <c r="Z49" s="3">
         <v>5539200</v>
       </c>
       <c r="AA49" s="3">
+        <v>5539200</v>
+      </c>
+      <c r="AB49" s="3">
         <v>5539300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3787,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,58 +3867,61 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E52" s="3">
         <v>50700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>46900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>46100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>44600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>47400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>42400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>36600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>36400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>35700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>36300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>34100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>35100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>33900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>33000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>31400</v>
-      </c>
-      <c r="S52" s="3">
-        <v>29900</v>
       </c>
       <c r="T52" s="3">
         <v>29900</v>
@@ -3811,25 +3930,28 @@
         <v>29900</v>
       </c>
       <c r="V52" s="3">
+        <v>29900</v>
+      </c>
+      <c r="W52" s="3">
         <v>28800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>27400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>26900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>20900</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>20800</v>
       </c>
       <c r="AA52" s="3">
         <v>20800</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4027,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29007200</v>
+      </c>
+      <c r="E54" s="3">
         <v>28239300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26956300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26327400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25925300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25487800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25236700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>25862600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26153400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25847400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24848300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22825100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22412800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21917500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>21304300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13204000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13121000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12943900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12493200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12516900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12374800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12120800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11796400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>11672300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>11917100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4139,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,96 +4169,100 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4127100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4358400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3906900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3738600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3532600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3370000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3294400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3614100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3770500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3400600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2954400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2860700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2844200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2727100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2452900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2385500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2336800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2295000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2018300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2009800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1978000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1880700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1622800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1557600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1948100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>900600</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
         <v>900600</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+      <c r="F58" s="3">
+        <v>900600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -4149,8 +4282,8 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>600</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>600</v>
@@ -4165,10 +4298,10 @@
         <v>600</v>
       </c>
       <c r="R58" s="3">
+        <v>600</v>
+      </c>
+      <c r="S58" s="3">
         <v>2000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1900</v>
       </c>
       <c r="T58" s="3">
         <v>1900</v>
@@ -4177,333 +4310,348 @@
         <v>1900</v>
       </c>
       <c r="V58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="W58" s="3">
         <v>401300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>401500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>401400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>401200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>501000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>501500</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2375600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2307800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2144400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2240800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2207900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2109100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2021000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2096700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2115700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2010500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1888300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1682300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1661300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1584600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1503300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>628400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>643500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>618600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>505100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>553800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>558200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>524700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>668100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>564300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>510100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6502600</v>
+      </c>
+      <c r="E60" s="3">
         <v>7566800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6951800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5979400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5740500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5479100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5315400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5710800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5886200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5411200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4843200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4543000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4506000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4312300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3956700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3015900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2982200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2915500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2525300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2964900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2937800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2806800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2692000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2622800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2959700</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5985700</v>
+      </c>
+      <c r="E61" s="3">
         <v>4290700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3947500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4172100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4127400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4156800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4130700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4131000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4131600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4089000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3967200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2912000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2762500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2573500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2732100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2862700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2902400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2776800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2862500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2604600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2719600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2683100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2632100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2710600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2673200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10425000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10193300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10095400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9914000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9867600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9714800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9540700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9359600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9150100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8991200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8828400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8667600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8496000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8282600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8042800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>908000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>880500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>872700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>869100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>821600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>973200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>943900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>943300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>932600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4727,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4656,8 +4807,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +4887,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22913400</v>
+      </c>
+      <c r="E66" s="3">
         <v>22050800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20994700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20065400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19735500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19350700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18986800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19201400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19167900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18491400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17638900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16122600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15764500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15168400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14731600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6786600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6765100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6565000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6256900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6391100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6630600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6433700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6267500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6266000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6555200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +4999,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5077,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,8 +5157,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5070,8 +5237,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,85 +5317,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2222800</v>
+      </c>
+      <c r="E72" s="3">
         <v>2364100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2157600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2474000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2461200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2429800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2588000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3006100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3346800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3759000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3659800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3162700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3120700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3234900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3074600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2941100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2890100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2928100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2795600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2698400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2334500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2286100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2136400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2015900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1978000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5477,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5557,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5637,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6093800</v>
+      </c>
+      <c r="E76" s="3">
         <v>6188500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5961600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6262000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6189800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6137100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6249900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6661200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6985500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7356100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7209500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6702500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6648300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6749200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6572700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6417400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6355900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6378900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6236300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6125800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5744200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5687100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5528900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>5406300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>5361900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5797,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44862</v>
+      </c>
+      <c r="E80" s="2">
         <v>44771</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44680</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44589</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44498</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44407</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44225</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44134</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43952</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43770</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43679</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43588</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43497</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43406</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43315</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43224</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43133</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43042</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42951</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42860</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42769</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>526200</v>
+      </c>
+      <c r="E81" s="3">
         <v>678000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>552700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>597400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>487000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>637000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>677700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>642700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>574300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>787600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>650400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>535400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>365600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>426600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>385000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>483200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>334100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>407200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>364900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>712200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>252500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>294800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>279500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>414200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,85 +5994,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>182800</v>
+      </c>
+      <c r="E83" s="3">
         <v>177200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>172600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>166400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>162300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>158500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>154100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>149800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>145800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>141000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>137700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>132400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>126500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>123400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>122500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>117800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>114900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>112200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>109300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>105700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>101000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>99000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>98600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>97500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6152,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6232,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6312,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6392,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6472,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300200</v>
+      </c>
+      <c r="E89" s="3">
         <v>498500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>449500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>639100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>909200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>614600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>703000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>492600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>476200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1171000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1736300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>576900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>530600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>556300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>574200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>629400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>416800</v>
-      </c>
-      <c r="T89" s="3">
-        <v>548600</v>
       </c>
       <c r="U89" s="3">
         <v>548600</v>
       </c>
       <c r="V89" s="3">
+        <v>548600</v>
+      </c>
+      <c r="W89" s="3">
         <v>659200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>356700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>275800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>510500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>480600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>331100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,85 +6584,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-419400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-377200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-281600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-291100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-260900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-240700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-277700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-330400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-273400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-228700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-195400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-266800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-225000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-148300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-144800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-183500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-179900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-206300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-164600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-157800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-174600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-170500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-143500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-154400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-138100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6742,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +6822,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-419200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-375800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-280800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-290100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-258800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-239700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-276900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-328900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-272900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-228100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-195000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-266300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-224500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-147300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-144300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-182500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-179500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-205600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-164000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-157400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-173900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-170300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-143400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-149400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-136200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,85 +6934,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-123000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-124200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-125300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-96800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-97300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-98300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-99800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-87300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-88400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-89700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-90600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-80800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-81600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-82400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-82800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-75300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>118300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-271900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-77700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-70000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-70600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-71000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-71300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-68900</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-70100</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7092,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7172,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,85 +7252,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>155500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-132100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-177900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-492800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-475400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-749200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1114600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-986600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-963500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-657200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>892200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-346300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-289500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-420600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-394300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-472100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-242000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-361700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-368100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-460600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-170700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-97300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-349000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-343600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-179700</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7164,81 +7412,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-143800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>175000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-374400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-688500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-822900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-760200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>285700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2433600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-35800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>16500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>35600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-25200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-18700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>16500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>41200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>12000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>8200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>18100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-12300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>15200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>DG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,341 +665,353 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44960</v>
+      </c>
+      <c r="E7" s="2">
         <v>44862</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44771</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44680</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44589</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44498</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44407</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44225</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44134</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43952</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43770</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43679</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43588</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43497</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43406</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43315</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43224</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43133</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43042</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42951</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42860</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42769</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10202900</v>
+      </c>
+      <c r="E8" s="3">
         <v>9464900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9425700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8751400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8651400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8517800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8650200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8401000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8414500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8199600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8684200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8448400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7157600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6991400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6981800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6623200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6649800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6417500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6443300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6114500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6129400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5903600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5828300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5609600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6009200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5320000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7054600</v>
+      </c>
+      <c r="E9" s="3">
         <v>6579700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6377500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6013000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5951200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5898400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5912500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5645300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5677800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5631400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5866000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5852800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4884900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4926300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4832800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4620900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4578100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4522400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4468400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4252200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4164000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4137200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4037800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3910600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4108500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3732500</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3148300</v>
+      </c>
+      <c r="E10" s="3">
         <v>2885200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3048200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2738400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2700200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2619400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2737700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2755700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2736700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2568200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2818200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2595600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2272700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2065100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2149000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2002300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2071700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1895100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1974900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1862300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1965400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1766500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1790500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1699000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1900700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1587500</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1040,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1108,8 +1121,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,8 +1204,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1214,8 +1233,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1226,17 +1245,17 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>31000</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1250,8 +1269,8 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1259,8 +1278,8 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
@@ -1268,8 +1287,11 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1348,8 +1370,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1375,168 +1400,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9269700</v>
+      </c>
+      <c r="E17" s="3">
         <v>8729300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8512300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8005200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7854800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7852300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7800600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7492100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7542300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7426500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7641600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7581700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6436800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6500000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6404000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6110900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6011300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5975300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5897800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5624300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5506000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5486200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5335200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5135800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5328600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4927000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>933200</v>
+      </c>
+      <c r="E18" s="3">
         <v>735600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>913400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>746200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>796600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>665500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>849600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>908900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>872200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>773100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1042600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>866700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>720800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>491400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>577800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>512300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>638500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>442200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>545500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>490200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>623400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>417400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>493100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>473800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>680600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1565,17 +1597,18 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1622,11 +1655,11 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1000</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1637,336 +1670,351 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1125500</v>
+      </c>
+      <c r="E21" s="3">
         <v>917900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1090600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>918700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>963000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>827900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1008100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1063000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1022000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>919000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1183600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1004400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>853300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>617900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>701200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>634700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>756300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>557000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>656600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>599500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>729100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>518400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>592200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>568900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>778200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>488400</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E22" s="3">
         <v>53700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>43100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>39700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>38500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>39200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>39400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>40400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>40300</v>
       </c>
       <c r="L22" s="3">
         <v>40300</v>
       </c>
       <c r="M22" s="3">
+        <v>40300</v>
+      </c>
+      <c r="N22" s="3">
         <v>39300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>30500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>25600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>24800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>25900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>25100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>24600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>25500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>24800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>24300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>24000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>23700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>25000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>25500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>858400</v>
+      </c>
+      <c r="E23" s="3">
         <v>681400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>870300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>706500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>758200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>626400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>810100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>868500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>832000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>732800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1003300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>836300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>695300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>467200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>553000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>486300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>613400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>417600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>519000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>465400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>599200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>393400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>469400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>445300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>655100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>199200</v>
+      </c>
+      <c r="E24" s="3">
         <v>155300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>192300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>153800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>160700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>139400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>173100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>190700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>189200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>158600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>215700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>185800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>159900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>101600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>126400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>101300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>142400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>83400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>111800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>197800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>140900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>174600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>165800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>240900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2045,168 +2093,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>659100</v>
+      </c>
+      <c r="E26" s="3">
         <v>526200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>678000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>552700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>597400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>487000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>637000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>677700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>642700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>574300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>787600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>650400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>535400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>365600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>426600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>385000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>471000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>334100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>407200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>364900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>401400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>252500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>294800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>279500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>414200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>659100</v>
+      </c>
+      <c r="E27" s="3">
         <v>526200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>678000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>552700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>597400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>487000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>637000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>677700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>642700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>574300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>787600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>650400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>535400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>365600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>426600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>385000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>471000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>334100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>407200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>364900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>401400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>252500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>294800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>279500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>414200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2285,8 +2342,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2314,8 +2374,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2323,11 +2383,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2335,11 +2395,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>12200</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2347,11 +2407,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>310800</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2365,8 +2425,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2445,8 +2508,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2525,17 +2591,20 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2582,11 +2651,11 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>1000</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2597,96 +2666,102 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>3500</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>659100</v>
+      </c>
+      <c r="E33" s="3">
         <v>526200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>678000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>552700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>597400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>487000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>637000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>677700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>642700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>574300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>787600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>650400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>535400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>365600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>426600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>385000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>483200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>334100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>407200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>364900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>712200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>252500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>294800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>279500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>414200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2765,173 +2840,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>659100</v>
+      </c>
+      <c r="E35" s="3">
         <v>526200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>678000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>552700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>597400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>487000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>637000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>677700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>642700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>574300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>787600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>650400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>535400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>365600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>426600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>385000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>483200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>334100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>407200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>364900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>712200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>252500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>294800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>279500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>414200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44960</v>
+      </c>
+      <c r="E38" s="2">
         <v>44862</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44771</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44680</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44589</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44498</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44407</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44225</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44134</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43952</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43770</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43679</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43588</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43497</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43406</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43315</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43224</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43133</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43042</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42951</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42860</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42769</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2960,8 +3044,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2990,88 +3075,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>381600</v>
+      </c>
+      <c r="E41" s="3">
         <v>362700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>326300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>335600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>344800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>488700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>313700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>688100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1376600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2199400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2959600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2673900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>240300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>276100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>259600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>271100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>235500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>260700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>265300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>284000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>267400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>226200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>214200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>206000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>187900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>200200</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3150,328 +3239,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>135800</v>
+      </c>
+      <c r="E43" s="3">
         <v>188100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>93300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>33600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>97400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>120400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>127000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>90800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>111100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>36200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>76500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>103200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>61700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>25200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>57800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>114600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>68400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>28600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>108300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>99700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>44300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>10500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>11100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6760700</v>
+      </c>
+      <c r="E44" s="3">
         <v>7144700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6935900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6087400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5614300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5298900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5279300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5099500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5247500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5025800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4391200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4107300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4676800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4496400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4419600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4109800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4097000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3979100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3896400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3594500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3609000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3597200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3463000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3300100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3258800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3488200</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>302900</v>
+      </c>
+      <c r="E45" s="3">
         <v>321500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>327500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>280300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>247300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>273900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>272800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>237600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>199400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>197000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>210500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>194000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>184200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>192900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>178300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>177700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>272700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>275900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>287800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>258900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>263100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>230300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>258600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>232400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>220000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>225400</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7581000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8017000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7682900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6736900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6303800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6181800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5992700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6041700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6914200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7533400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7597400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6992500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5177900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5068500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4919100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4583800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4663000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4630300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4517800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4166000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4247900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4153300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3980000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3748900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3677800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3968500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3550,88 +3654,94 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15906300</v>
+      </c>
+      <c r="E48" s="3">
         <v>15396800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14967400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14634200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14439100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14160500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13909300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13614100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13373300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13045200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12675800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12280900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12074500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11770500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11425800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11148800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2970800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2921900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2857300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2758400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2701300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2654900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2574800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2487300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2434500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3648,7 +3758,7 @@
         <v>5538300</v>
       </c>
       <c r="H49" s="3">
-        <v>5538400</v>
+        <v>5538300</v>
       </c>
       <c r="I49" s="3">
         <v>5538400</v>
@@ -3657,7 +3767,7 @@
         <v>5538400</v>
       </c>
       <c r="K49" s="3">
-        <v>5538500</v>
+        <v>5538400</v>
       </c>
       <c r="L49" s="3">
         <v>5538500</v>
@@ -3666,7 +3776,7 @@
         <v>5538500</v>
       </c>
       <c r="N49" s="3">
-        <v>5538600</v>
+        <v>5538500</v>
       </c>
       <c r="O49" s="3">
         <v>5538600</v>
@@ -3675,43 +3785,46 @@
         <v>5538600</v>
       </c>
       <c r="Q49" s="3">
+        <v>5538600</v>
+      </c>
+      <c r="R49" s="3">
         <v>5538700</v>
-      </c>
-      <c r="R49" s="3">
-        <v>5538800</v>
       </c>
       <c r="S49" s="3">
         <v>5538800</v>
       </c>
       <c r="T49" s="3">
-        <v>5538900</v>
+        <v>5538800</v>
       </c>
       <c r="U49" s="3">
         <v>5538900</v>
       </c>
       <c r="V49" s="3">
-        <v>5539000</v>
+        <v>5538900</v>
       </c>
       <c r="W49" s="3">
         <v>5539000</v>
       </c>
       <c r="X49" s="3">
-        <v>5539100</v>
+        <v>5539000</v>
       </c>
       <c r="Y49" s="3">
         <v>5539100</v>
       </c>
       <c r="Z49" s="3">
-        <v>5539200</v>
+        <v>5539100</v>
       </c>
       <c r="AA49" s="3">
         <v>5539200</v>
       </c>
       <c r="AB49" s="3">
+        <v>5539200</v>
+      </c>
+      <c r="AC49" s="3">
         <v>5539300</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3790,8 +3903,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3870,61 +3986,64 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E52" s="3">
         <v>55000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>50700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>46900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>46100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>44600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>47400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>42400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>36600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>36400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>35700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>36300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>34100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>35100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>33900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>33000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>31400</v>
-      </c>
-      <c r="T52" s="3">
-        <v>29900</v>
       </c>
       <c r="U52" s="3">
         <v>29900</v>
@@ -3933,25 +4052,28 @@
         <v>29900</v>
       </c>
       <c r="W52" s="3">
+        <v>29900</v>
+      </c>
+      <c r="X52" s="3">
         <v>28800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>27400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>26900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>20900</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>20800</v>
       </c>
       <c r="AB52" s="3">
         <v>20800</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4030,88 +4152,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29083400</v>
+      </c>
+      <c r="E54" s="3">
         <v>29007200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28239300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26956300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26327400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25925300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25487800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>25236700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25862600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26153400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25847400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>24848300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22825100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22412800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>21917500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>21304300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13204000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13121000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12943900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12493200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12516900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12374800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12120800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>11796400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>11672300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>11917100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4140,8 +4268,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4170,102 +4299,106 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3553000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4127100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4358400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3906900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3738600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3532600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3370000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3294400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3614100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3770500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3400600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2954400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2860700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2844200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2727100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2452900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2385500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2336800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2295000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2018300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2009800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1978000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1880700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1622800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1557600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1948100</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>900600</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
         <v>900600</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
+      <c r="G58" s="3">
+        <v>900600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -4285,8 +4418,8 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>600</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>600</v>
@@ -4301,10 +4434,10 @@
         <v>600</v>
       </c>
       <c r="S58" s="3">
+        <v>600</v>
+      </c>
+      <c r="T58" s="3">
         <v>2000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1900</v>
       </c>
       <c r="U58" s="3">
         <v>1900</v>
@@ -4313,345 +4446,360 @@
         <v>1900</v>
       </c>
       <c r="W58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="X58" s="3">
         <v>401300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>401500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>401400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>401200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>501000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>501500</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2334800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2375600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2307800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2144400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2240800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2207900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2109100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2021000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2096700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2115700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2010500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1888300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1682300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1661300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1584600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1503300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>628400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>643500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>618600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>505100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>553800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>558200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>524700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>668100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>564300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>510100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5887800</v>
+      </c>
+      <c r="E60" s="3">
         <v>6502600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7566800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6951800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5979400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5740500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5479100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5315400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5710800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5886200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5411200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4843200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4543000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4506000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4312300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3956700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3015900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2982200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2915500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2525300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2964900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2937800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2806800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2692000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2622800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2959700</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7009400</v>
+      </c>
+      <c r="E61" s="3">
         <v>5985700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4290700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3947500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4172100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4127400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4156800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4130700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4131000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4131600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4089000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3967200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2912000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2762500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2573500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2732100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2862700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2902400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2776800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2862500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2604600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2719600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2683100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2632100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2710600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2673200</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10644400</v>
+      </c>
+      <c r="E62" s="3">
         <v>10425000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10193300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10095400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9914000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9867600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9714800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9540700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9359600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9150100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8991200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8828400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8667600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8496000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8282600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8042800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>908000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>880500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>872700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>869100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>821600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>973200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>943900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>943300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>932600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4730,8 +4878,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4810,8 +4961,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4890,88 +5044,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23541600</v>
+      </c>
+      <c r="E66" s="3">
         <v>22913400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22050800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20994700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20065400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19735500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19350700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18986800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19201400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19167900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18491400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17638900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16122600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15764500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15168400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14731600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6786600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6765100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6565000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6256900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6391100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6630600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6433700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6267500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6266000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>6555200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5000,8 +5160,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5080,8 +5241,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5160,8 +5324,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5240,8 +5407,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5320,88 +5490,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1656100</v>
+      </c>
+      <c r="E72" s="3">
         <v>2222800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2364100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2157600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2474000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2461200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2429800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2588000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3006100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3346800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3759000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3659800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3162700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3120700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3234900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3074600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2941100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2890100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2928100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2795600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2698400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2334500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2286100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2136400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2015900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1978000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5480,8 +5656,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5560,8 +5739,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5640,88 +5822,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5541800</v>
+      </c>
+      <c r="E76" s="3">
         <v>6093800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6188500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5961600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6262000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6189800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6137100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6249900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6661200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6985500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7356100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7209500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6702500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6648300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6749200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6572700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6417400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6355900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6378900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6236300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6125800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5744200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5687100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>5528900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>5406300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>5361900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5800,173 +5988,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44960</v>
+      </c>
+      <c r="E80" s="2">
         <v>44862</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44771</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44680</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44589</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44498</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44407</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44225</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44134</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43952</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43770</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43679</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43588</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43497</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43406</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43315</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43224</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43133</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43042</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42951</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42860</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42769</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>659100</v>
+      </c>
+      <c r="E81" s="3">
         <v>526200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>678000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>552700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>597400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>487000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>637000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>677700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>642700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>574300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>787600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>650400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>535400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>365600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>426600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>385000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>483200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>334100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>407200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>364900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>712200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>252500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>294800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>279500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>414200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5995,88 +6192,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>192400</v>
+      </c>
+      <c r="E83" s="3">
         <v>182800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>177200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>172600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>166400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>162300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>158500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>154100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>149800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>145800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>141000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>137700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>132400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>126500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>123400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>122500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>117800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>114900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>112200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>109300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>105700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>101000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>99000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>98600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>97500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6155,8 +6356,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6235,8 +6439,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6315,8 +6522,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6395,8 +6605,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6475,88 +6688,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>736400</v>
+      </c>
+      <c r="E89" s="3">
         <v>300200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>498500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>449500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>639100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>909200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>614600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>703000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>492600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>476200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1171000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1736300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>576900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>530600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>556300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>574200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>629400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>416800</v>
-      </c>
-      <c r="U89" s="3">
-        <v>548600</v>
       </c>
       <c r="V89" s="3">
         <v>548600</v>
       </c>
       <c r="W89" s="3">
+        <v>548600</v>
+      </c>
+      <c r="X89" s="3">
         <v>659200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>356700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>275800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>510500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>480600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>331100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6585,88 +6804,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-482400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-419400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-377200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-281600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-291100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-260900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-240700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-277700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-330400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-273400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-228700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-195400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-266800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-225000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-148300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-144800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-183500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-179900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-206300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-164600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-157800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-174600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-170500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-143500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-154400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-138100</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6745,8 +6968,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6825,88 +7051,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-479500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-419200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-375800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-280800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-290100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-258800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-239700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-276900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-328900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-272900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-228100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-195000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-266300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-224500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-147300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-144300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-182500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-179500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-205600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-164000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-157400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-173900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-170300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-143400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-149400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-136200</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6935,88 +7167,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-121300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-123000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-124200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-125300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-96800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-97300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-98300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-99800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-87300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-88400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-89700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-90600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-80800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-81600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-82400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-82800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-75300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>118300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-271900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-77700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-70000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-70600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-71000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-71300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-68900</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-70100</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7095,8 +7331,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7175,8 +7414,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7255,88 +7497,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-238000</v>
+      </c>
+      <c r="E100" s="3">
         <v>155500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-132100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-177900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-492800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-475400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-749200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1114600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-986600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-963500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-657200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>892200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-346300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-289500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-420600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-394300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-472100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-242000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-361700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-368100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-460600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-170700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-97300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-349000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-343600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-179700</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7415,84 +7663,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E102" s="3">
         <v>36500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-143800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>175000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-374400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-688500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-822900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-760200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>285700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2433600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-35800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>16500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-11500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>35600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-25200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-18700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>16500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>41200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>12000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>8200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>18100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-12300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>15200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>DG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,353 +665,377 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="31" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45142</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45051</v>
+      </c>
+      <c r="F7" s="2">
         <v>44960</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44862</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44771</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44680</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44589</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44498</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44407</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44225</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44134</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43952</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43770</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43679</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43588</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43497</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43406</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43315</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43224</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43133</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43042</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42951</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42860</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42769</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9796200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9342800</v>
+      </c>
+      <c r="F8" s="3">
         <v>10202900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>9464900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>9425700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>8751400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>8651400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>8517800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8650200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>8401000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>8414500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>8199600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>8684200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>8448400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>7157600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>6991400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>6981800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>6623200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>6649800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>6417500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>6443300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>6114500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>6129400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>5903600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>5828300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>5609600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>6009200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>5320000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6751500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6387400</v>
+      </c>
+      <c r="F9" s="3">
         <v>7054600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>6579700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>6377500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>6013000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>5951200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>5898400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5912500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5645300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>5677800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5631400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5866000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>5852800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4884900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>4926300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4832800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>4620900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>4578100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>4522400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>4468400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>4252200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>4164000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>4137200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>4037800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>3910600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>4108500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>3732500</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3044700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2955400</v>
+      </c>
+      <c r="F10" s="3">
         <v>3148300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2885200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3048200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2738400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2700200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2619400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2737700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2755700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2736700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2568200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2818200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2595600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2272700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2065100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2149000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2002300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2071700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1895100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1974900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1862300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1965400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1766500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>1790500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>1699000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>1900700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>1587500</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1065,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1124,8 +1150,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,8 +1239,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1236,11 +1274,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1248,20 +1286,20 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>31000</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1272,26 +1310,32 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>8</v>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1373,8 +1417,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1401,174 +1451,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9103900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8602000</v>
+      </c>
+      <c r="F17" s="3">
         <v>9269700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>8729300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>8512300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8005200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7854800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>7852300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7800600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7492100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7542300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7426500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7641600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>7581700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6436800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>6500000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>6404000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>6110900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>6011300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>5975300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>5897800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>5624300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>5506000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>5486200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>5335200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>5135800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>5328600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>4927000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>692300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>740800</v>
+      </c>
+      <c r="F18" s="3">
         <v>933200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>735600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>913400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>746200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>796600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>665500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>849600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>908900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>872200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>773100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1042600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>866700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>720800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>491400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>577800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>512300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>638500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>442200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>545500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>490200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>623400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>417400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>493100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>473800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>680600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1598,8 +1662,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1607,14 +1673,14 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1658,14 +1724,14 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1000</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
@@ -1673,348 +1739,378 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-3500</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>900700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>942800</v>
+      </c>
+      <c r="F21" s="3">
         <v>1125500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>917900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1090600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>918700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>963000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>827900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1008100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1063000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1022000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>919000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1183600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1004400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>853300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>617900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>701200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>634700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>756300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>557000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>656600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>599500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>729100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>518400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>592200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>568900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>778200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>488400</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>83000</v>
+      </c>
+      <c r="F22" s="3">
         <v>74800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>53700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>43100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>39700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>38500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>39200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>39400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>40400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>40300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>40300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>39300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>30500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>25600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>24300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>24800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>25900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>25100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>24600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>25500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>24800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>24300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>24000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>23700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>25000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>25500</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>608000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>657800</v>
+      </c>
+      <c r="F23" s="3">
         <v>858400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>681400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>870300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>706500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>758200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>626400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>810100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>868500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>832000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>732800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1003300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>836300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>695300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>467200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>553000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>486300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>613400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>417600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>519000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>465400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>599200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>393400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>469400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>445300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>655100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>369100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>143400</v>
+      </c>
+      <c r="F24" s="3">
         <v>199200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>155300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>192300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>153800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>160700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>139400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>173100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>190700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>189200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>158600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>215700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>185800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>159900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>101600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>126400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>101300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>142400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>83400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>111800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>100600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>197800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>140900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>174600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>165800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>240900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>133800</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,174 +2192,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>468800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>514400</v>
+      </c>
+      <c r="F26" s="3">
         <v>659100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>526200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>678000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>552700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>597400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>487000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>637000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>677700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>642700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>574300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>787600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>650400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>535400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>365600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>426600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>385000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>471000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>334100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>407200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>364900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>401400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>252500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>294800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>279500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>414200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>468800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>514400</v>
+      </c>
+      <c r="F27" s="3">
         <v>659100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>526200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>678000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>552700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>597400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>487000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>637000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>677700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>642700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>574300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>787600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>650400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>535400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>365600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>426600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>385000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>471000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>334100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>407200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>364900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>401400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>252500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>294800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>279500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>414200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2345,8 +2459,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2377,47 +2497,47 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>12200</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>12200</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>310800</v>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
+      <c r="Z29" s="3">
+        <v>310800</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2428,8 +2548,14 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2511,8 +2637,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2594,8 +2726,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2603,14 +2741,14 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2654,14 +2792,14 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>1000</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
@@ -2669,99 +2807,111 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>3500</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>468800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>514400</v>
+      </c>
+      <c r="F33" s="3">
         <v>659100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>526200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>678000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>552700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>597400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>487000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>637000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>677700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>642700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>574300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>787600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>650400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>535400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>365600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>426600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>385000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>483200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>334100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>407200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>364900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>712200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>252500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>294800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>279500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>414200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2843,179 +2993,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>468800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>514400</v>
+      </c>
+      <c r="F35" s="3">
         <v>659100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>526200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>678000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>552700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>597400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>487000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>637000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>677700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>642700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>574300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>787600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>650400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>535400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>365600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>426600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>385000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>483200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>334100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>407200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>364900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>712200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>252500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>294800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>279500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>414200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45142</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45051</v>
+      </c>
+      <c r="F38" s="2">
         <v>44960</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44862</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44771</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44680</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44589</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44498</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44407</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44225</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44134</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43952</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43770</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43679</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43588</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43497</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43406</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43315</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43224</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43133</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43042</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42951</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42860</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42769</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3045,8 +3213,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3076,91 +3246,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>353000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>313100</v>
+      </c>
+      <c r="F41" s="3">
         <v>381600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>362700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>326300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>335600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>344800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>488700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>313700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>688100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1376600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2199400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2959600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2673900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>240300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>276100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>259600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>271100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>235500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>260700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>265300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>284000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>267400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>226200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>214200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>206000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>187900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>200200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3242,340 +3420,370 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>151700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>50900</v>
+      </c>
+      <c r="F43" s="3">
         <v>135800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>188100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>93300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>33600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>97400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>120400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>127000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>16600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>90800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>111100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>36200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>17200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>76500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>103200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>61700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>25200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>57800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>114600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>68400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>28600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>108300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>99700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>44300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>10500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>11100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7531500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>7335800</v>
+      </c>
+      <c r="F44" s="3">
         <v>6760700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>7144700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>6935900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>6087400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>5614300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>5298900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>5279300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>5099500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>5247500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>5025800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>4391200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>4107300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>4676800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>4496400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>4419600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>4109800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>4097000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>3979100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>3896400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>3594500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>3609000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>3597200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>3463000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>3300100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>3258800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>3488200</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>377800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>355700</v>
+      </c>
+      <c r="F45" s="3">
         <v>302900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>321500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>327500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>280300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>247300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>273900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>272800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>237600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>199400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>197000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>210500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>194000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>184200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>192900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>178300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>177700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>272700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>275900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>287800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>258900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>263100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>230300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>258600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>232400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>220000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>225400</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8414000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>8055500</v>
+      </c>
+      <c r="F46" s="3">
         <v>7581000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>8017000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>7682900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>6736900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>6303800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>6181800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5992700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6041700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6914200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>7533400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7597400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6992500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5177900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5068500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4919100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4583800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4663000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>4630300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>4517800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>4166000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>4247900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>4153300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>3980000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>3748900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>3677800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>3968500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3657,91 +3865,103 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16379300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>16146700</v>
+      </c>
+      <c r="F48" s="3">
         <v>15906300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>15396800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>14967400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>14634200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>14439100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>14160500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>13909300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>13614100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>13373300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>13045200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>12675800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>12280900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>12074500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>11770500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>11425800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>11148800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2970800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2921900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2857300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2758400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>2701300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>2654900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>2574800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>2487300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>2434500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>2388500</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3761,70 +3981,76 @@
         <v>5538300</v>
       </c>
       <c r="I49" s="3">
-        <v>5538400</v>
+        <v>5538300</v>
       </c>
       <c r="J49" s="3">
-        <v>5538400</v>
+        <v>5538300</v>
       </c>
       <c r="K49" s="3">
         <v>5538400</v>
       </c>
       <c r="L49" s="3">
-        <v>5538500</v>
+        <v>5538400</v>
       </c>
       <c r="M49" s="3">
-        <v>5538500</v>
+        <v>5538400</v>
       </c>
       <c r="N49" s="3">
         <v>5538500</v>
       </c>
       <c r="O49" s="3">
-        <v>5538600</v>
+        <v>5538500</v>
       </c>
       <c r="P49" s="3">
-        <v>5538600</v>
+        <v>5538500</v>
       </c>
       <c r="Q49" s="3">
         <v>5538600</v>
       </c>
       <c r="R49" s="3">
+        <v>5538600</v>
+      </c>
+      <c r="S49" s="3">
+        <v>5538600</v>
+      </c>
+      <c r="T49" s="3">
         <v>5538700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>5538800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>5538800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>5538900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>5538900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>5539000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>5539000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>5539100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>5539100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>5539200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>5539200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>5539300</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3906,8 +4132,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3989,91 +4221,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>63500</v>
+      </c>
+      <c r="F52" s="3">
         <v>57700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>55000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>50700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>46900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>46100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>44600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>47400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>42400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>36600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>36400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>35700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>36300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>34100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>35100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>33900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>33000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>31400</v>
-      </c>
-      <c r="U52" s="3">
-        <v>29900</v>
-      </c>
-      <c r="V52" s="3">
-        <v>29900</v>
       </c>
       <c r="W52" s="3">
         <v>29900</v>
       </c>
       <c r="X52" s="3">
+        <v>29900</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>29900</v>
+      </c>
+      <c r="Z52" s="3">
         <v>28800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>27400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>26900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>20900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>20800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4155,91 +4399,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30395600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>29803900</v>
+      </c>
+      <c r="F54" s="3">
         <v>29083400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>29007200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>28239300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>26956300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>26327400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>25925300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>25487800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>25236700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>25862600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>26153400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>25847400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>24848300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>22825100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>22412800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>21917500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>21304300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>13204000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>13121000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>12943900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>12493200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>12516900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>12374800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>12120800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>11796400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>11672300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>11917100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4269,8 +4525,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4300,111 +4558,119 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3681600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3679200</v>
+      </c>
+      <c r="F57" s="3">
         <v>3553000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4127100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4358400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3906900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3738600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3532600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3370000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3294400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3614100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3770500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3400600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2954400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2860700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2844200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2727100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2452900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2385500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2336800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2295000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2018300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>2009800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1978000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1880700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1622800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>1557600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>1948100</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="3">
+        <v>250000</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
         <v>900600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>900600</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -4421,11 +4687,11 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>600</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>600</v>
@@ -4437,369 +4703,399 @@
         <v>600</v>
       </c>
       <c r="T58" s="3">
+        <v>600</v>
+      </c>
+      <c r="U58" s="3">
+        <v>600</v>
+      </c>
+      <c r="V58" s="3">
         <v>2000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>1900</v>
-      </c>
-      <c r="V58" s="3">
-        <v>1900</v>
       </c>
       <c r="W58" s="3">
         <v>1900</v>
       </c>
       <c r="X58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Z58" s="3">
         <v>401300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>401500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>401400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>401200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>501000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>501500</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2352300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2171500</v>
+      </c>
+      <c r="F59" s="3">
         <v>2334800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2375600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2307800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2144400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2240800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2207900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2109100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2021000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2096700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2115700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2010500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1888300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1682300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1661300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1584600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1503300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>628400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>643500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>618600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>505100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>553800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>558200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>524700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>668100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>564300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>510100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6033900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6100700</v>
+      </c>
+      <c r="F60" s="3">
         <v>5887800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6502600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7566800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6951800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5979400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5740500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5479100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5315400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5710800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5886200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5411200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4843200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4543000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4506000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4312300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3956700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3015900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2982200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2915500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2525300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2964900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2937800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>2806800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>2692000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>2622800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>2959700</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7295200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7028800</v>
+      </c>
+      <c r="F61" s="3">
         <v>7009400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5985700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4290700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3947500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4172100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4127400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4156800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4130700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4131000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4131600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4089000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3967200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2912000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2762500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2573500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2732100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2862700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2902400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2776800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>2862500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>2604600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>2719600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>2683100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>2632100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>2710600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>2673200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10768700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10739200</v>
+      </c>
+      <c r="F62" s="3">
         <v>10644400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>10425000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>10193300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>10095400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>9914000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>9867600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>9714800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>9540700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>9359600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>9150100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>8991200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>8828400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>8667600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>8496000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>8282600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>8042800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>908000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>880500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>872700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>869100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>821600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>973200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>943900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>943300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>932600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>922300</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4881,8 +5177,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4964,8 +5266,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5047,91 +5355,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24097900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>23868700</v>
+      </c>
+      <c r="F66" s="3">
         <v>23541600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>22913400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>22050800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>20994700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>20065400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>19735500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>19350700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>18986800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>19201400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>19167900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>18491400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>17638900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>16122600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>15764500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>15168400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>14731600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6786600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>6765100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6565000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>6256900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>6391100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>6630600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>6433700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>6267500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>6266000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>6555200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5161,8 +5481,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5244,8 +5566,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5327,8 +5655,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5410,8 +5744,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5493,91 +5833,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2380500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2041100</v>
+      </c>
+      <c r="F72" s="3">
         <v>1656100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2222800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2364100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2157600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2474000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2461200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2429800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2588000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>3006100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3346800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3759000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3659800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>3162700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>3120700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>3234900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>3074600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>2941100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>2890100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>2928100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>2795600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>2698400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>2334500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>2286100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>2136400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>2015900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>1978000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5659,8 +6011,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5742,8 +6100,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5825,91 +6189,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6297700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5935300</v>
+      </c>
+      <c r="F76" s="3">
         <v>5541800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>6093800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6188500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5961600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6262000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6189800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6137100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6249900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6661200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6985500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>7356100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>7209500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6702500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>6648300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>6749200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>6572700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>6417400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>6355900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>6378900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>6236300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>6125800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>5744200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>5687100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>5528900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>5406300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>5361900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5991,179 +6367,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45142</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45051</v>
+      </c>
+      <c r="F80" s="2">
         <v>44960</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44862</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44771</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44680</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44589</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44498</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44407</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44225</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44134</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43952</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43770</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43679</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43588</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43497</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43406</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43315</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43224</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43133</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43042</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42951</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42860</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42769</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42671</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>468800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>514400</v>
+      </c>
+      <c r="F81" s="3">
         <v>659100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>526200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>678000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>552700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>597400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>487000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>637000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>677700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>642700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>574300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>787600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>650400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>535400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>365600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>426600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>385000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>483200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>334100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>407200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>364900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>712200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>252500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>294800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>279500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>414200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>235300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6193,91 +6587,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>208400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>201900</v>
+      </c>
+      <c r="F83" s="3">
         <v>192400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>182800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>177200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>172600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>166400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>162300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>158500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>154100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>149800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>145800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>141000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>137700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>132400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>126500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>123400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>122500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>117800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>114900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>112200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>109300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>105700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>101000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>99000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>98600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>97500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6359,8 +6761,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6442,8 +6850,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6525,8 +6939,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6608,8 +7028,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6691,91 +7117,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>535600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>191100</v>
+      </c>
+      <c r="F89" s="3">
         <v>736400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>300200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>498500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>449500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>639100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>909200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>614600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>703000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>492600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>476200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1171000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1736300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>576900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>530600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>556300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>574200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>629400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>416800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>548600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>548600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>659200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>356700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>275800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>510500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>480600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>331100</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6805,91 +7243,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-404800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-363100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-482400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-419400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-377200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-281600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-291100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-260900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-240700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-277700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-330400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-273400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-228700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-195400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-266800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-225000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-148300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-144800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-183500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-179900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-206300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-164600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-157800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-174600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-170500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-143500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-154400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-138100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6971,8 +7417,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7054,91 +7506,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-403100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-361600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-479500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-419200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-375800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-280800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-290100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-258800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-239700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-276900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-328900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-272900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-228100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-195000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-266300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-224500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-147300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-144300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-182500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-179500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-205600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-164000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-157400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-173900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-170300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-143400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-149400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-136200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7168,91 +7632,99 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-129500</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-129400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-121300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-123000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-124200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-125300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-96800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-97300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-98300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-99800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-87300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-88400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-89700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-90600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-80800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-81600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-82400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-82800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-75300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>118300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-271900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-77700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-70000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-70600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-71000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-71300</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-68900</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AE96" s="3">
         <v>-70100</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7334,8 +7806,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7417,8 +7895,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7500,91 +7984,103 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-92600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>102000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-238000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>155500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-132100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-177900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-492800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-475400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-749200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1114600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-986600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-963500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-657200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>892200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-346300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-289500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-420600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-394300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-472100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-242000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-361700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-368100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-460600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-170700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-97300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-349000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-343600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-179700</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7666,87 +8162,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-68500</v>
+      </c>
+      <c r="F102" s="3">
         <v>18800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>36500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-9400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-9200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-143800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>175000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-374400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-688500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-822900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-760200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>285700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2433600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-35800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>16500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-11500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>35600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-25200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-4600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-18700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>16500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>41200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>12000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>8200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>18100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-12300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>15200</v>
       </c>
     </row>
